--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31610000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34775000</v>
+      </c>
+      <c r="F8" s="3">
         <v>32894000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>32071000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>32128000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>34281000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>32607000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>32203000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>31772000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>33955000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>31717000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>30548000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>29814000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>32340000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12296000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15631000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13384000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12721000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12990000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15291000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13331000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>13328000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13255000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>15387000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>20614000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12484000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12047000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14362000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19314000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19144000</v>
+      </c>
+      <c r="F10" s="3">
         <v>19510000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19350000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>19138000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>18990000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>19276000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18875000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>18517000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18568000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11103000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18064000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>17767000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>17978000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,96 +992,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1377000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="F14" s="3">
         <v>291000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1544000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-96000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4945000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>159000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>910000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>356000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2558000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>620000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>722000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4105000</v>
+      </c>
+      <c r="F15" s="3">
         <v>4114000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4232000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4231000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4350000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4370000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>4338000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4322000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4237000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>8544000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>12388000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8118000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3987000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25213000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30127000</v>
+      </c>
+      <c r="F17" s="3">
         <v>25005000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>25765000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>24323000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>31991000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>24954000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>25586000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>24672000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>30058000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>25183000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>22534000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>23700000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>24317000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6397000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="F18" s="3">
         <v>7889000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6306000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7805000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2290000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>7653000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6617000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>7100000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3897000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6534000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8014000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6114000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>8023000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F20" s="3">
         <v>180000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>219000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>193000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>276000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>233000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>132000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>155000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>256000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>141000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>171000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>63000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10860000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8976000</v>
+      </c>
+      <c r="F21" s="3">
         <v>12183000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10757000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>12229000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6918000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>12263000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11099000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>11579000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8609000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10947000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>12352000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10373000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>12073000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1146000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1215000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1210000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1199000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1211000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1222000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1201000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1219000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1164000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1218000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1132000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1137000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5676000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3712000</v>
+      </c>
+      <c r="F23" s="3">
         <v>6923000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5310000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6788000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1367000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6675000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5527000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6054000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2934000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5511000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6967000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5182000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>6949000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1505000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1586000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1236000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1628000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-698000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1613000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1281000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1388000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>912000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1775000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2489000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1629000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2349000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4287000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5217000</v>
+      </c>
+      <c r="F26" s="3">
         <v>5337000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4074000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5160000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2065000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5062000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4246000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4666000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2022000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3736000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4478000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3553000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4600000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5095000</v>
+      </c>
+      <c r="F27" s="3">
         <v>5194000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3944000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5032000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1939000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4924000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4120000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4545000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1908000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3620000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4362000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3450000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4495000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1579,26 +1699,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>16761000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>16761000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-313000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-180000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-219000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-193000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-276000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-233000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-132000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-155000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-256000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-141000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-171000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-63000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5095000</v>
+      </c>
+      <c r="F33" s="3">
         <v>5194000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3944000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5032000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1939000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4924000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4120000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4545000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>18669000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3620000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4362000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3450000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4495000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5095000</v>
+      </c>
+      <c r="F35" s="3">
         <v>5194000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3944000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5032000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1939000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4924000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4120000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4545000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>18669000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3620000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4362000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3450000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4495000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7047000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3020000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1949000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2322000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2745000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2538000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1750000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1923000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2079000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4487000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4583000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4307000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2880000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,316 +2224,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24641000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26277000</v>
+      </c>
+      <c r="F43" s="3">
         <v>25531000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>25738000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>25239000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25859000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>24765000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>23875000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>22595000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>23493000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>21549000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>19771000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>16863000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>17513000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1538000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1167000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1417000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1336000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1270000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1102000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1285000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1034000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1276000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1116000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1194000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1202000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7384000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7180000</v>
+      </c>
+      <c r="F45" s="3">
         <v>4806000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4454000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4419000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4696000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4581000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4149000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5222000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3307000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3555000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3353000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4794000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4800000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40705000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>37473000</v>
+      </c>
+      <c r="F46" s="3">
         <v>34895000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>33308000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>33397000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>34636000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>33154000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>30876000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>31025000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>29913000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>30867000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>28823000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27158000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>26395000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>834000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>860000</v>
+      </c>
+      <c r="F47" s="3">
         <v>912000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>897000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>925000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>917000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>976000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1070000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>994000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1039000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1054000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1075000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1080000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1110000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114649000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>114609000</v>
+      </c>
+      <c r="F48" s="3">
         <v>111067000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>110285000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>110954000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>89286000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>87464000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>87781000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>87922000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>88568000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>86622000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>86521000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>85213000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>84751000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>126224000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>128946000</v>
+      </c>
+      <c r="F49" s="3">
         <v>128267000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>128439000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>128480000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>128519000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>132937000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>132916000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>132812000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>127836000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>127601000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>127674000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>124296000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>122775000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12088000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9839000</v>
+      </c>
+      <c r="F52" s="3">
         <v>9734000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10179000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>10191000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>11471000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11031000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10660000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11763000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9787000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8538000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8885000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8984000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9149000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>294500000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>291727000</v>
+      </c>
+      <c r="F54" s="3">
         <v>284875000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>283108000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>283947000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>264829000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>265562000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>263303000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>264516000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>257143000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>254682000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>252978000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>246731000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>244180000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17419000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21806000</v>
+      </c>
+      <c r="F57" s="3">
         <v>19566000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17633000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>18664000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>22501000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>19342000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>18560000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>17052000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>21232000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>18434000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>17825000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>14826000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13876000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11175000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10777000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7830000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8773000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>8614000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7190000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6502000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5466000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6323000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3453000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2180000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1153000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3707000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2645000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12463000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12285000</v>
+      </c>
+      <c r="F59" s="3">
         <v>11813000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11808000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11329000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8239000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8323000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8303000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8240000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8352000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8316000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8780000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8131000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13819000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41057000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44868000</v>
+      </c>
+      <c r="F60" s="3">
         <v>39209000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>38214000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>38607000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>37930000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>34167000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>32329000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31615000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>33037000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>28930000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>27758000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>26664000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>30340000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>106561000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100712000</v>
+      </c>
+      <c r="F61" s="3">
         <v>101769000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>104598000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>105045000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>105873000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>106440000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>109174000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>112734000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>113642000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>115317000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>116390000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>112839000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>105433000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85229000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>83312000</v>
+      </c>
+      <c r="F62" s="3">
         <v>83585000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>82349000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>82835000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>66316000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>68868000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>68225000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>67822000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>65777000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>81984000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>82069000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>82191000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>84375000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>234290000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>230332000</v>
+      </c>
+      <c r="F66" s="3">
         <v>225954000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>226526000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>228091000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>211684000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>211067000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>211279000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>213735000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>214047000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>227834000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>227789000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>223238000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>221656000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54557000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>53147000</v>
+      </c>
+      <c r="F72" s="3">
         <v>50595000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>47945000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>46493000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>43542000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>44091000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>41657000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>39974000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>35635000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>19373000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>18159000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>16153000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15059000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60210000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>61395000</v>
+      </c>
+      <c r="F76" s="3">
         <v>58921000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>56582000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>55856000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>53145000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>54495000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>52024000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>50781000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>43096000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26848000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25189000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>23493000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>22524000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5095000</v>
+      </c>
+      <c r="F81" s="3">
         <v>5194000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3944000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5032000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1939000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4924000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4120000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4545000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>18669000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3620000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4362000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3450000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4495000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4105000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4114000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4232000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4231000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4352000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4377000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4350000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4324000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4456000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4272000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4167000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4059000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3987000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8824000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8998000</v>
+      </c>
+      <c r="F89" s="3">
         <v>10912000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>8755000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7081000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8095000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9811000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9785000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6648000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8084000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7303000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8237000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1681000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5086000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5274000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5607000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6980000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5424000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2547000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2542000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2492000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-2489000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-2489000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-2438000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2438000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-2356000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-2354000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2354000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3863000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4665000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-203000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4407000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1086000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-417000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-379000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>341000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>847000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-207000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>47000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-56000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>456000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1491000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30447000</v>
+      </c>
+      <c r="E8" s="3">
         <v>31610000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34775000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32894000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32071000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32128000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32607000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32203000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31772000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33955000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31717000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30548000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29814000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32340000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11749000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12296000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15631000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13384000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12721000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12990000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15291000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13331000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13328000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13255000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15387000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20614000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12484000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12047000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14362000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18698000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19314000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19144000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19510000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19350000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19138000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18990000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19276000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18875000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18517000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18568000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11103000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18064000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17767000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17978000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,108 +1014,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1377000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2381000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>291000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1544000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-96000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4945000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>159000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>910000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>356000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2558000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>620000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>722000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4181000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4150000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4105000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4114000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4232000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4231000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4350000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4370000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4338000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4322000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4237000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8544000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12388000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8118000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3987000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23239000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25213000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30127000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25005000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25765000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24323000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31991000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24954000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25586000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24672000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30058000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25183000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22534000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23700000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24317000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7208000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6397000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4648000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7889000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6306000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7805000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2290000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7653000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6617000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7100000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3897000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6534000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8014000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6114000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8023000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E20" s="3">
         <v>313000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>223000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>180000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>219000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>193000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>276000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>233000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>132000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>155000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>256000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>141000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>171000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>63000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11457000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10860000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8976000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12183000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10757000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12229000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6918000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12263000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11099000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11579000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8609000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10947000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12352000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10373000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12073000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1034000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1159000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1146000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1215000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1210000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1199000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1211000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1222000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1201000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1219000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1164000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1218000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1132000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1137000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6187000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5676000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3712000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6923000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5310000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6788000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1367000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6675000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5527000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6054000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2934000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5511000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6967000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5182000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6949000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1389000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1586000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1236000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1628000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-698000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1613000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1281000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1388000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>912000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1775000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2489000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1629000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2349000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4839000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4287000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5217000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5337000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4074000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5160000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2065000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5062000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4246000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4666000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2022000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3736000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4478000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3553000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4600000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4156000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5095000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5194000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3944000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5032000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1939000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4924000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4120000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4545000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1908000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3620000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4362000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3450000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4495000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,11 +1765,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1717,11 +1777,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-313000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-223000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-180000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-219000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-193000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-276000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-233000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-132000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-155000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-256000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-141000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-171000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-63000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4156000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5095000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5194000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3944000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5032000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1939000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4924000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4120000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4545000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18669000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3620000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4362000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3450000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4495000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4156000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5095000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5194000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3944000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5032000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1939000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4924000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4120000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4545000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18669000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3620000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4362000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3450000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4495000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7882000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7047000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2594000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3020000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1949000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2322000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2745000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2538000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1750000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1923000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2079000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4487000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4583000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4307000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2880000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,358 +2319,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23434000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24641000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26277000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25531000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25738000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25239000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25859000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24765000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23875000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22595000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23493000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21549000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19771000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16863000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17513000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1633000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1422000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1538000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1167000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1417000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1336000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1270000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1102000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1285000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1034000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1276000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1116000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1194000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1202000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4728000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7384000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7180000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4806000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4454000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4419000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4696000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4581000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4149000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5222000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3307000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3555000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3353000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4794000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4800000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37333000</v>
+      </c>
+      <c r="E46" s="3">
         <v>40705000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37473000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34895000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33308000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33397000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34636000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33154000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30876000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31025000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29913000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30867000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28823000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27158000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26395000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E47" s="3">
         <v>834000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>860000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>912000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>897000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>925000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>917000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>976000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1070000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>994000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1039000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1054000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1075000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1080000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1110000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>115185000</v>
+      </c>
+      <c r="E48" s="3">
         <v>114649000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114609000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>111067000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110285000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110954000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>89286000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>87464000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>87781000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87922000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>88568000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86622000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86521000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>85213000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84751000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130034000</v>
+      </c>
+      <c r="E49" s="3">
         <v>126224000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128946000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>128267000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128439000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128480000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128519000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>132937000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>132916000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132812000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>127836000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>127601000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>127674000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>124296000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122775000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9947000</v>
+      </c>
+      <c r="E52" s="3">
         <v>12088000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9839000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9734000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10179000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10191000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11471000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11031000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10660000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11763000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9787000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8538000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8885000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8984000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9149000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>293259000</v>
+      </c>
+      <c r="E54" s="3">
         <v>294500000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>291727000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>284875000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>283108000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>283947000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>264829000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>265562000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>263303000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>264516000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>257143000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>254682000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>252978000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>246731000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>244180000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19297000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17419000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21806000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19566000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17633000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18664000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22501000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19342000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18560000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17052000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21232000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18434000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17825000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14826000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13876000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6651000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11175000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10777000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7830000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8773000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8614000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7190000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6502000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5466000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6323000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3453000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2180000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1153000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3707000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2645000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12938000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12463000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12285000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11813000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11808000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11329000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8239000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8323000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8303000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8240000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8352000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8316000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8780000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8131000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13819000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38886000</v>
+      </c>
+      <c r="E60" s="3">
         <v>41057000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44868000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39209000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38214000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38607000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>37930000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34167000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32329000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31615000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33037000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28930000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27758000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26664000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30340000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>106190000</v>
+      </c>
+      <c r="E61" s="3">
         <v>106561000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100712000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>101769000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>104598000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>105045000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>105873000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>106440000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>109174000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>112734000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>113642000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>115317000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>116390000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>112839000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>105433000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84070000</v>
+      </c>
+      <c r="E62" s="3">
         <v>85229000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83312000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83585000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>82349000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>82835000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>66316000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>68868000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68225000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>67822000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>65777000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>81984000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82069000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82191000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84375000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>230562000</v>
+      </c>
+      <c r="E66" s="3">
         <v>234290000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>230332000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>225954000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>226526000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>228091000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>211684000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>211067000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>211279000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>213735000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>214047000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>227834000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>227789000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>223238000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>221656000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56746000</v>
+      </c>
+      <c r="E72" s="3">
         <v>54557000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53147000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50595000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47945000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46493000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43542000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>44091000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41657000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39974000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35635000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19373000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18159000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16153000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15059000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62697000</v>
+      </c>
+      <c r="E76" s="3">
         <v>60210000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61395000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58921000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56582000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55856000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53145000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54495000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52024000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50781000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43096000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26848000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25189000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23493000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22524000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4156000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5095000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5194000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3944000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5032000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1939000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4924000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4120000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4545000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18669000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3620000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4362000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3450000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4495000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4181000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4150000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4114000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4232000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4231000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4352000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4377000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4350000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4324000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4456000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4272000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4167000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4059000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3987000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14728000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8824000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8998000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10912000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8755000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7081000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8095000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9811000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9785000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6648000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8084000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7303000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8237000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1681000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5086000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4576000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5144000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2543000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="I96" s="3">
         <v>-2489000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="K96" s="3">
         <v>-2438000</v>
       </c>
       <c r="L96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2354000</v>
       </c>
       <c r="R96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8795000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2563000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4665000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-203000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4407000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-289000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1086000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-417000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-379000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>341000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>847000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-207000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-56000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>456000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1491000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31543000</v>
+      </c>
+      <c r="E8" s="3">
         <v>30447000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31610000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34775000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32894000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32071000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32128000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34281000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32607000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32203000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31772000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33955000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31717000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30548000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29814000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32340000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12334000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11749000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12296000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15631000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13384000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12721000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12990000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15291000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13331000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13328000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13255000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15387000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20614000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12484000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12047000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14362000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19209000</v>
+      </c>
+      <c r="E10" s="3">
         <v>18698000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19314000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19144000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19510000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19350000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19138000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18990000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19276000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18875000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18517000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18568000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11103000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18064000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17767000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17978000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,114 +1033,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>153000</v>
+        <v>1092000</v>
       </c>
       <c r="E14" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1377000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2381000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>291000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1544000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-96000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4945000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>159000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>910000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>356000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2558000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>620000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>722000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4192000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4181000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4150000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4105000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4114000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4232000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4231000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4350000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4370000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4338000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4322000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4237000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8544000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12388000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8118000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3987000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23239000</v>
+        <v>24957000</v>
       </c>
       <c r="E17" s="3">
+        <v>23341000</v>
+      </c>
+      <c r="F17" s="3">
         <v>25213000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30127000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25005000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25765000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24323000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31991000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24954000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25586000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24672000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30058000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25183000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22534000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23700000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24317000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7208000</v>
+        <v>6586000</v>
       </c>
       <c r="E18" s="3">
+        <v>7106000</v>
+      </c>
+      <c r="F18" s="3">
         <v>6397000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4648000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7889000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6306000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7805000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2290000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7653000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6617000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7100000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3897000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6534000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8014000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6114000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8023000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68000</v>
+        <v>309000</v>
       </c>
       <c r="E20" s="3">
+        <v>197000</v>
+      </c>
+      <c r="F20" s="3">
         <v>313000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>223000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>180000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>219000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>193000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>276000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>233000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>132000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>155000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>256000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>141000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>171000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>63000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11457000</v>
+        <v>11087000</v>
       </c>
       <c r="E21" s="3">
+        <v>11484000</v>
+      </c>
+      <c r="F21" s="3">
         <v>10860000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8976000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12183000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10757000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12229000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6918000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12263000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11099000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11579000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8609000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10947000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12352000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10373000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12073000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1089000</v>
+        <v>1044000</v>
       </c>
       <c r="E22" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1034000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1159000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1146000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1215000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1210000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1199000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1211000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1222000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1201000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1219000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1164000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1218000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1132000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1137000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5851000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6187000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5676000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3712000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6923000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5310000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6788000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1367000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6675000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5527000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6054000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2934000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5511000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6967000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5182000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6949000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1347000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1348000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1389000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1586000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1236000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1628000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-698000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1613000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1281000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1388000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>912000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1775000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2489000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1629000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2349000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4504000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4839000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4287000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5217000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5337000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4074000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5160000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2065000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5062000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4246000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4666000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2022000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3736000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4478000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3553000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4600000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4357000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4700000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4156000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5095000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5194000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3944000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5032000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1939000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4924000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4120000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4545000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1908000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3620000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4362000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3450000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4495000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,11 +1828,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1780,11 +1840,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68000</v>
+        <v>-309000</v>
       </c>
       <c r="E32" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-313000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-223000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-180000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-219000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-193000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-276000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-233000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-132000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-155000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-256000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-141000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-63000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4357000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4700000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4156000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5095000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5194000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3944000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5032000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1939000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4924000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4120000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4545000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18669000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3620000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4362000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3450000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4495000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4357000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4700000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4156000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5095000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5194000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3944000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5032000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1939000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4924000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4120000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4545000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18669000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3620000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4362000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3450000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4495000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8983000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7882000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7047000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2594000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3020000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1949000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2322000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2745000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2538000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1750000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1923000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2079000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4487000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4583000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4307000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2880000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,379 +2411,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23350000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23434000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24641000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26277000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25531000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25738000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25239000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25859000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24765000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23875000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22595000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23493000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21549000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19771000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16863000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17513000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1457000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1289000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1633000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1422000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1538000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1167000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1417000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1336000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1270000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1102000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1285000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1034000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1276000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1194000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1202000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4728000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7384000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7180000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4806000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4454000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4419000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4696000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4581000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4149000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5222000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3307000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3555000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3353000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4794000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4800000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38572000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37333000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40705000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37473000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34895000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33308000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33397000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34636000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33154000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30876000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31025000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29913000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30867000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28823000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27158000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26395000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>725000</v>
+      </c>
+      <c r="E47" s="3">
         <v>760000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>834000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>860000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>912000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>897000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>925000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>917000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>976000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1070000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>994000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1039000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1054000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1075000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1080000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1110000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>115862000</v>
+      </c>
+      <c r="E48" s="3">
         <v>115185000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114649000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114609000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>111067000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110285000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110954000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>89286000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>87464000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87781000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87922000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>88568000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86622000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86521000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>85213000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84751000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130356000</v>
+      </c>
+      <c r="E49" s="3">
         <v>130034000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>126224000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>128946000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128267000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128439000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128480000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128519000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>132937000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132916000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132812000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>127836000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>127601000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>127674000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>124296000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122775000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11479000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9947000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12088000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9839000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9734000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10179000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10191000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11471000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11031000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10660000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11763000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9787000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8538000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8885000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8984000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9149000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>296994000</v>
+      </c>
+      <c r="E54" s="3">
         <v>293259000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>294500000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>291727000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>284875000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>283108000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>283947000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>264829000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>265562000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>263303000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>264516000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>257143000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>254682000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>252978000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>246731000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>244180000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17391000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19297000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17419000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21806000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19566000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17633000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18664000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22501000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19342000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18560000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17052000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21232000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18434000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17825000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14826000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13876000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5770000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6651000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11175000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10777000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7830000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8773000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8614000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7190000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6502000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5466000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6323000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3453000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2180000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1153000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3707000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2645000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13024000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12938000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12463000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12285000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11813000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11808000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11329000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8239000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8323000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8303000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8240000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8352000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8316000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8780000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8131000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13819000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36185000</v>
+      </c>
+      <c r="E60" s="3">
         <v>38886000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41057000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44868000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39209000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38214000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38607000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37930000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34167000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32329000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31615000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33037000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28930000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27758000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26664000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30340000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>109790000</v>
+      </c>
+      <c r="E61" s="3">
         <v>106190000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>106561000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100712000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>101769000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>104598000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>105045000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>105873000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>106440000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>109174000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>112734000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>113642000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>115317000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>116390000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>112839000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>105433000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84489000</v>
+      </c>
+      <c r="E62" s="3">
         <v>84070000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>85229000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83312000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83585000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>82349000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>82835000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>66316000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68868000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68225000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>67822000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>65777000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>81984000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82069000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82191000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84375000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231925000</v>
+      </c>
+      <c r="E66" s="3">
         <v>230562000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>234290000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>230332000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>225954000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>226526000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>228091000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>211684000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>211067000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>211279000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>213735000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>214047000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>227834000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>227789000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>223238000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>221656000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58473000</v>
+      </c>
+      <c r="E72" s="3">
         <v>56746000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54557000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53147000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50595000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47945000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46493000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43542000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44091000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41657000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39974000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35635000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19373000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18159000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16153000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15059000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65069000</v>
+      </c>
+      <c r="E76" s="3">
         <v>62697000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60210000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61395000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58921000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56582000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55856000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53145000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54495000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52024000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50781000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43096000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26848000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25189000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23493000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22524000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4357000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4700000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4156000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5095000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5194000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3944000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5032000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1939000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4924000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4120000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4545000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18669000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3620000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4362000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3450000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4495000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4192000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4181000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4150000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4114000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4232000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4231000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4352000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4377000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4350000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4324000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4456000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4272000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4167000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4059000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3987000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8920000</v>
+      </c>
+      <c r="E89" s="3">
         <v>14728000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8824000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8998000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10912000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8755000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7081000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8095000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9811000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9785000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6648000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8084000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7303000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8237000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1681000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5086000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4318000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6345000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2546000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="J96" s="3">
         <v>-2489000</v>
       </c>
       <c r="K96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="L96" s="3">
         <v>-2438000</v>
       </c>
       <c r="M96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="R96" s="3">
         <v>-2354000</v>
       </c>
       <c r="S96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1505000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2563000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4665000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-203000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E102" s="3">
         <v>789000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4407000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-289000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1086000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-417000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-379000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>341000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>847000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-207000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-56000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>456000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1491000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34692000</v>
+      </c>
+      <c r="E8" s="3">
         <v>31543000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30447000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31610000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34775000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32894000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32071000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32128000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34281000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32607000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32203000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31772000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33955000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31717000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30548000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29814000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32340000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14822000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12334000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11749000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12296000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15631000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13384000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12721000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12990000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15291000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13331000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13328000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13255000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15387000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20614000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12484000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12047000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14362000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19870000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19209000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18698000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19314000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19144000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19510000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19350000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19138000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18990000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19276000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18875000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18517000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18568000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11103000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18064000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17767000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17978000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,120 +1052,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1092000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>255000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1377000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2381000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>291000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1544000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-96000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4945000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>159000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>910000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>356000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2558000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>620000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>722000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4197000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4192000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4181000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4150000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4105000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4114000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4232000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4231000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4350000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4370000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4338000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4322000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4237000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8544000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12388000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8118000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3987000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27695000</v>
+      </c>
+      <c r="E17" s="3">
         <v>24957000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23341000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25213000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30127000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25005000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25765000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24323000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31991000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24954000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25586000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24672000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30058000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25183000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22534000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23700000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24317000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6997000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6586000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7106000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6397000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4648000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7889000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6306000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7805000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2290000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7653000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6617000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7100000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3897000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6534000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8014000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6114000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8023000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E20" s="3">
         <v>309000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>197000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>313000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>223000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>180000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>219000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>193000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>276000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>233000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>132000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>155000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>256000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>141000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>171000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>63000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11530000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11087000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11484000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10860000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8976000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12183000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10757000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12229000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6918000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12263000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11099000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11579000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8609000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10947000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12352000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10373000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12073000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1044000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1116000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1034000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1159000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1146000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1215000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1210000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1199000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1211000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1222000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1201000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1219000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1164000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1218000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1132000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1137000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6253000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5851000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6187000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5676000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3712000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6923000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5310000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6788000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1367000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6675000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5527000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6054000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2934000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5511000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6967000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5182000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6949000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1347000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1348000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1389000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1586000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1236000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1628000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-698000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1613000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1281000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1388000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>912000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1775000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2489000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1629000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2349000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4718000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4504000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4839000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4287000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5217000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5337000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4074000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5160000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2065000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5062000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4246000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4666000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2022000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3736000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4478000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3553000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4600000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4588000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4357000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4700000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4156000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5095000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5194000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3944000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5032000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1939000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4924000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4120000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4545000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1908000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3620000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4362000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3450000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4495000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1891,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1843,11 +1903,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-309000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-197000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-313000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-223000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-180000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-219000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-193000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-276000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-233000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-132000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-155000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-256000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-141000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-171000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-63000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4588000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4357000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4700000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4156000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5095000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5194000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3944000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5032000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1939000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4924000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4120000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4545000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18669000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3620000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4362000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3450000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4495000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4588000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4357000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4700000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4156000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5095000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5194000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3944000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5032000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1939000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4924000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4120000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4545000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18669000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3620000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4362000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3450000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4495000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22171000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8983000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7882000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7047000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2594000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3020000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1949000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2322000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2745000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2538000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1750000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1923000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2079000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4487000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4583000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4307000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2880000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,400 +2503,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24650000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23350000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23434000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24641000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26277000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25531000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25738000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25239000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25859000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24765000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23875000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22595000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23493000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21549000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19771000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16863000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17513000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1796000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1457000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1289000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1633000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1422000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1538000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1167000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1417000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1336000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1270000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1102000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1285000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1034000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1276000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1116000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1194000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1202000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5977000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4782000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4728000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7384000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7180000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4806000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4454000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4419000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4696000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4581000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4149000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5222000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3307000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3555000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3353000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4794000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4800000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>54594000</v>
+      </c>
+      <c r="E46" s="3">
         <v>38572000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37333000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40705000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37473000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34895000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33308000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33397000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34636000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33154000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30876000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31025000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29913000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30867000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28823000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27158000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26395000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E47" s="3">
         <v>725000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>760000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>834000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>860000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>912000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>897000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>925000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>917000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>976000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1070000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>994000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1039000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1075000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1080000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1110000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117364000</v>
+      </c>
+      <c r="E48" s="3">
         <v>115862000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115185000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114649000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114609000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>111067000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110285000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>110954000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>89286000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87464000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87781000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87922000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88568000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86622000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86521000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>85213000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84751000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130283000</v>
+      </c>
+      <c r="E49" s="3">
         <v>130356000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130034000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126224000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128946000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128267000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128439000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128480000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128519000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132937000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132916000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132812000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>127836000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>127601000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>127674000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>124296000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122775000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13447000</v>
+      </c>
+      <c r="E52" s="3">
         <v>11479000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9947000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12088000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9839000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9734000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10179000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10191000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11471000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11031000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10660000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11763000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9787000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8538000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8885000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8984000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9149000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>316481000</v>
+      </c>
+      <c r="E54" s="3">
         <v>296994000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>293259000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>294500000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>291727000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>284875000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>283108000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>283947000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264829000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>265562000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>263303000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>264516000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>257143000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>254682000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>252978000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>246731000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>244180000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20658000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17391000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19297000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17419000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21806000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19566000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17633000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18664000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22501000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19342000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18560000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17052000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21232000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18434000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17825000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14826000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13876000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5889000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5770000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6651000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11175000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10777000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7830000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8773000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8614000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7190000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6502000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5466000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6323000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3453000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2180000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1153000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3707000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2645000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13113000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13024000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12938000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12463000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12285000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11813000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11808000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11329000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8239000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8323000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8303000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8240000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8352000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8316000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8780000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8131000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13819000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39660000</v>
+      </c>
+      <c r="E60" s="3">
         <v>36185000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38886000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41057000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44868000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39209000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38214000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38607000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37930000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34167000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32329000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31615000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33037000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28930000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27758000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26664000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30340000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>123173000</v>
+      </c>
+      <c r="E61" s="3">
         <v>109790000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>106190000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>106561000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>100712000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>101769000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>104598000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>105045000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>105873000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>106440000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>109174000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>112734000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>113642000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>115317000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>116390000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>112839000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105433000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84376000</v>
+      </c>
+      <c r="E62" s="3">
         <v>84489000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84070000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>85229000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83312000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83585000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>82349000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82835000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66316000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68868000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68225000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>67822000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>65777000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81984000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82069000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82191000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84375000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>248639000</v>
+      </c>
+      <c r="E66" s="3">
         <v>231925000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>230562000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>234290000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>230332000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>225954000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>226526000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>228091000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>211684000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>211067000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>211279000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>213735000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>214047000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>227834000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>227789000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>223238000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>221656000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60464000</v>
+      </c>
+      <c r="E72" s="3">
         <v>58473000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>56746000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54557000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53147000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50595000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47945000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46493000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43542000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44091000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41657000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39974000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35635000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19373000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18159000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16153000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15059000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67842000</v>
+      </c>
+      <c r="E76" s="3">
         <v>65069000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62697000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60210000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61395000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58921000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56582000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55856000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53145000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54495000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52024000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50781000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43096000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26848000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25189000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23493000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22524000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4588000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4357000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4700000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4156000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5095000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5194000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3944000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5032000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1939000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4924000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4120000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4545000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18669000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3620000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4362000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3450000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4495000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4197000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4192000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4181000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4150000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4114000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4232000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4231000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4352000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4377000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4350000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4324000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4456000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4272000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4167000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4059000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3987000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9296000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8920000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14728000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8824000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8998000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10912000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8755000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7081000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8095000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9811000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9785000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6648000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8084000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7303000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8237000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1681000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5086000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4024000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5043000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2596000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="K96" s="3">
         <v>-2489000</v>
       </c>
       <c r="L96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="M96" s="3">
         <v>-2438000</v>
       </c>
       <c r="N96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="S96" s="3">
         <v>-2354000</v>
       </c>
       <c r="T96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,64 +5537,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9062000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2563000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4665000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-203000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13315000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1070000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>789000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4407000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-289000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1086000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-417000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-379000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>341000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>847000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-207000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>47000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>456000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1491000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32867000</v>
+      </c>
+      <c r="E8" s="3">
         <v>34692000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31543000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30447000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31610000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34775000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32894000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32071000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32128000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34281000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32607000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32203000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31772000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33955000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31717000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30548000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29814000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32340000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13522000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14822000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12334000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11749000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12296000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15631000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13384000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12721000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12990000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15291000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13331000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13328000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13255000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15387000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20614000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12484000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12047000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14362000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19345000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19870000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19209000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18698000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19314000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19144000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19510000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19350000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19138000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18990000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19276000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18875000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18517000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18568000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11103000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18064000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17767000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17978000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,126 +1071,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E14" s="3">
         <v>404000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1092000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>255000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1377000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2381000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>291000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1544000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-96000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4945000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>159000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>910000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>356000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2558000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>620000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>722000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4174000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4197000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4192000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4181000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4150000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4105000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4114000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4232000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4231000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4350000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4370000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4338000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4322000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4237000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8544000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12388000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8118000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3987000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25097000</v>
+      </c>
+      <c r="E17" s="3">
         <v>27695000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24957000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23341000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25213000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30127000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25005000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25765000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24323000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31991000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24954000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25586000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24672000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30058000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25183000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22534000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23700000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24317000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7770000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6997000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6586000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7106000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6397000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4648000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7889000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6306000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7805000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2290000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7653000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6617000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7100000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3897000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6534000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8014000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6114000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8023000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E20" s="3">
         <v>336000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>309000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>197000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>313000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>223000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>180000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>219000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>193000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>276000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>233000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>132000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>155000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>256000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>141000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>171000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>63000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12353000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11530000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11087000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11484000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10860000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8976000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12183000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10757000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12229000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6918000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12263000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11099000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11579000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8609000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10947000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12352000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10373000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12073000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1080000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1044000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1116000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1034000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1159000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1146000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1215000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1210000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1199000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1211000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1222000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1201000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1219000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1164000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1218000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1132000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1137000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7078000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6253000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5851000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6187000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5676000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3712000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6923000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5310000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6788000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1367000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6675000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5527000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6054000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2934000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5511000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6967000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5182000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6949000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1535000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1347000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1348000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1389000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1586000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1236000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1628000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-698000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1613000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1281000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1388000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>912000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1775000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2489000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1629000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2349000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5378000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4718000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4504000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4839000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4287000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5217000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5337000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4074000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5160000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2065000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5062000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4246000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4666000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2022000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3736000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4478000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3553000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4600000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5245000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4588000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4357000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4700000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4156000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5095000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5194000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3944000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5032000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1939000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4924000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4120000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4545000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1908000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3620000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4362000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3450000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4495000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,40 +1922,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1906,11 +1966,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-336000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-309000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-197000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-313000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-223000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-180000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-219000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-193000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-276000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-233000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-132000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-155000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-256000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-141000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-171000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-63000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5245000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4588000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4357000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4700000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4156000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5095000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5194000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3944000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5032000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1939000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4924000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4120000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4545000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18669000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3620000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4362000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3450000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4495000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5245000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4588000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4357000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4700000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4156000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5095000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5194000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3944000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5032000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1939000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4924000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4120000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4545000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18669000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3620000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4362000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3450000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4495000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10205000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22171000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8983000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7882000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7047000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2594000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3020000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1949000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2322000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2745000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2538000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1750000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1923000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2079000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4487000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4583000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4307000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2880000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,421 +2595,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23236000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24650000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23350000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23434000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24641000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26277000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25531000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25738000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25239000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25859000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24765000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23875000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22595000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23493000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21549000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19771000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16863000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17513000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1796000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1457000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1289000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1633000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1422000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1538000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1167000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1417000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1336000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1270000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1102000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1285000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1276000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1116000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1194000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1202000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4903000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5977000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4782000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4728000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7384000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7180000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4806000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4454000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4419000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4696000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4581000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4149000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5222000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3307000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3555000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3353000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4794000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4800000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39647000</v>
+      </c>
+      <c r="E46" s="3">
         <v>54594000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38572000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37333000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40705000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37473000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34895000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33308000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33397000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34636000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33154000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30876000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31025000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29913000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30867000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28823000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27158000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26395000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E47" s="3">
         <v>793000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>725000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>760000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>834000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>860000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>912000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>897000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>925000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>917000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>976000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1070000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>994000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1054000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1075000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1080000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1110000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117191000</v>
+      </c>
+      <c r="E48" s="3">
         <v>117364000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115862000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115185000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114649000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>114609000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>111067000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>110285000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>110954000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89286000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87464000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87781000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87922000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88568000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86622000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86521000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>85213000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84751000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>132153000</v>
+      </c>
+      <c r="E49" s="3">
         <v>130283000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130356000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130034000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126224000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128946000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128267000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128439000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128480000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128519000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132937000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132916000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132812000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>127836000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>127601000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>127674000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>124296000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>122775000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55833000</v>
+      </c>
+      <c r="E52" s="3">
         <v>13447000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11479000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9947000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12088000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9839000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9734000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10179000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10191000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11471000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11031000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10660000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11763000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9787000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8538000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8885000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8984000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9149000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>345573000</v>
+      </c>
+      <c r="E54" s="3">
         <v>316481000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>296994000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>293259000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>294500000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>291727000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>284875000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>283108000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>283947000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>264829000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>265562000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>263303000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>264516000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>257143000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>254682000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>252978000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>246731000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>244180000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17219000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20658000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17391000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19297000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17419000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21806000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19566000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17633000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18664000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22501000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19342000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18560000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17052000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21232000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18434000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17825000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14826000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13876000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8802000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5889000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5770000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6651000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11175000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10777000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7830000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8773000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8614000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7190000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6502000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5466000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6323000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3453000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2180000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1153000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3707000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2645000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12709000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13024000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12938000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12463000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12285000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11813000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11808000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11329000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8239000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8323000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8303000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8240000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8352000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8316000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8780000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8131000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13819000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38730000</v>
+      </c>
+      <c r="E60" s="3">
         <v>39660000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36185000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38886000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41057000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44868000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39209000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38607000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37930000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34167000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32329000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31615000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33037000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28930000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27758000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26664000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30340000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>149700000</v>
+      </c>
+      <c r="E61" s="3">
         <v>123173000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>109790000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>106190000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>106561000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>100712000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>101769000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>104598000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>105045000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>105873000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>106440000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>109174000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>112734000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>113642000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>115317000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>116390000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>112839000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>105433000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84460000</v>
+      </c>
+      <c r="E62" s="3">
         <v>84376000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84489000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84070000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85229000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83312000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83585000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82349000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82835000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66316000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68868000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>68225000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>67822000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>65777000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>81984000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82069000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82191000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84375000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>274341000</v>
+      </c>
+      <c r="E66" s="3">
         <v>248639000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>231925000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>230562000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>234290000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>230332000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>225954000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>226526000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>228091000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>211684000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>211067000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>211279000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>213735000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>214047000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>227834000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>227789000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>223238000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>221656000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63107000</v>
+      </c>
+      <c r="E72" s="3">
         <v>60464000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58473000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56746000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54557000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53147000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50595000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47945000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46493000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43542000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44091000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41657000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39974000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35635000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19373000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18159000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16153000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15059000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71232000</v>
+      </c>
+      <c r="E76" s="3">
         <v>67842000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>65069000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62697000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60210000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61395000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58921000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56582000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55856000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53145000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54495000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52024000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50781000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43096000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26848000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25189000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23493000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22524000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5245000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4588000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4357000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4700000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4156000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5095000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5194000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3944000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5032000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1939000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4924000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4120000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4545000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18669000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3620000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4362000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3450000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4495000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4174000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4197000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4192000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4181000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4150000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4105000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4114000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4232000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4231000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4352000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4377000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4350000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4324000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4456000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4272000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4167000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4059000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3987000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9694000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9296000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8920000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14728000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8824000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8998000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10912000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8755000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7081000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8095000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9811000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9785000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6648000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8084000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7303000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8237000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1681000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5086000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4494000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49653000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2601000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="L96" s="3">
         <v>-2489000</v>
       </c>
       <c r="M96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="N96" s="3">
         <v>-2438000</v>
       </c>
       <c r="O96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="T96" s="3">
         <v>-2354000</v>
       </c>
       <c r="U96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27956000</v>
+      </c>
+      <c r="E100" s="3">
         <v>9062000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2563000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4665000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-203000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12003000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13315000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1070000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>789000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4407000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-289000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1086000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-417000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-379000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>341000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>847000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-207000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>47000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-56000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>456000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1491000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33764000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32867000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34692000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31543000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30447000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31610000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34775000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32894000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32071000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32128000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34281000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32607000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32203000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31772000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33955000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31717000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30548000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29814000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32340000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14255000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13522000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14822000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12334000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11749000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12296000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15631000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13384000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12721000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12990000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15291000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13331000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13328000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13255000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15387000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20614000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12484000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12047000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14362000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19509000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19345000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19870000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19209000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18698000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19314000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19144000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19510000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19350000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19138000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18990000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19276000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18875000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18517000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18568000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11103000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18064000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17767000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17978000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,132 +1090,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E14" s="3">
         <v>223000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>404000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1092000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>255000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1377000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2381000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>291000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1544000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-96000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4945000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>159000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>910000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>356000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2558000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>620000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>722000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4020000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4174000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4197000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4192000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4181000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4150000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4105000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4114000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4232000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4231000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4350000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4370000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4338000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4322000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4237000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8544000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12388000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8118000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3987000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25431000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25097000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27695000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24957000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23341000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25213000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30127000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25005000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25765000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24323000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31991000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24954000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25586000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24672000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30058000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25183000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22534000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23700000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24317000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8333000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7770000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6997000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6586000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7106000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6397000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4648000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7889000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6306000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7805000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2290000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7653000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6617000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7100000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3897000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6534000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8014000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6114000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8023000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E20" s="3">
         <v>409000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>336000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>309000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>197000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>313000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>223000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>180000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>219000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>193000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>276000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>233000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>132000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>155000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>256000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>141000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>171000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>63000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12688000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12353000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11530000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11087000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11484000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10860000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8976000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12183000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10757000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12229000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6918000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12263000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11099000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11579000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8609000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10947000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12352000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10373000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12073000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>844000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1101000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1080000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1044000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1116000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1034000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1159000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1146000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1215000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1210000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1199000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1211000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1222000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1201000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1219000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1164000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1218000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1132000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1137000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7824000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7078000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6253000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5851000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6187000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5676000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3712000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6923000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5310000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6788000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1367000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6675000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5527000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6054000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2934000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5511000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6967000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5182000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6949000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1875000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1535000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1347000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1348000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1389000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1586000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1236000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1628000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-698000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1613000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1281000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1388000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>912000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1775000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2489000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1629000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2349000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5949000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5378000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4718000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4504000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4839000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4287000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5217000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5337000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4074000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5160000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2065000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5062000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4246000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4666000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2022000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3736000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4478000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3553000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4600000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5245000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4588000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4357000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4700000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4156000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5095000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5194000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3944000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5032000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1939000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4924000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4120000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1908000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3620000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4362000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3450000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4495000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,17 +2011,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1969,11 +2029,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-335000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-409000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-336000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-309000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-197000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-313000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-223000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-180000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-219000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-193000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-276000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-233000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-132000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-256000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-141000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-171000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-63000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5245000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4588000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4357000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4700000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4156000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5095000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5194000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3944000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5032000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1939000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4924000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4120000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18669000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3620000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4362000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3450000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4495000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5245000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4588000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4357000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4700000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4156000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5095000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5194000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3944000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5032000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1939000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4924000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4120000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18669000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3620000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4362000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3450000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4495000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4657000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10205000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22171000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8983000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7882000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7047000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2594000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3020000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1949000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2322000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2745000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2538000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1750000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1923000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2079000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4487000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4583000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4307000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2880000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,442 +2687,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22029000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23236000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24650000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23350000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23434000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24641000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26277000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25531000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25738000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25239000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25859000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24765000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23875000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22595000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23493000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21549000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19771000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16863000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17513000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1303000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1796000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1457000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1289000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1633000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1422000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1538000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1167000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1417000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1336000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1270000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1102000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1285000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1034000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1276000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1116000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1194000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1202000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7519000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4903000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5977000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4782000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4728000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7384000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7180000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4806000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4454000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4419000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4696000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4581000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4149000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5222000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3307000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3555000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3353000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4794000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4800000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35626000</v>
+      </c>
+      <c r="E46" s="3">
         <v>39647000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54594000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38572000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37333000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40705000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37473000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34895000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33308000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33397000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34636000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33154000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30876000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31025000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29913000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30867000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28823000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27158000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26395000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E47" s="3">
         <v>749000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>793000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>725000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>760000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>834000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>860000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>912000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>897000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>925000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>917000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>976000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1070000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>994000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1039000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1054000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1075000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1080000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1110000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>122382000</v>
+      </c>
+      <c r="E48" s="3">
         <v>117191000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117364000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115862000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>115185000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>114649000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114609000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>111067000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>110285000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>110954000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>89286000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87464000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87781000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87922000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>88568000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86622000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86521000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>85213000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84751000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129951000</v>
+      </c>
+      <c r="E49" s="3">
         <v>132153000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130283000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130356000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130034000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>126224000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128946000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128267000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128439000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128480000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128519000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132937000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132916000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132812000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>127836000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>127601000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>127674000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>124296000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>122775000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60471000</v>
+      </c>
+      <c r="E52" s="3">
         <v>55833000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13447000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11479000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9947000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12088000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9839000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9734000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10179000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10191000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11471000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11031000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10660000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11763000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9787000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8538000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8885000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8984000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9149000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>349190000</v>
+      </c>
+      <c r="E54" s="3">
         <v>345573000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>316481000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>296994000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>293259000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>294500000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>291727000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>284875000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>283108000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>283947000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>264829000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>265562000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>263303000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>264516000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>257143000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>254682000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>252978000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>246731000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>244180000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17328000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17219000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20658000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17391000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19297000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17419000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21806000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19566000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17633000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18664000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22501000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19342000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18560000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17052000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21232000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18434000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17825000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14826000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13876000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7023000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8802000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5889000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5770000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6651000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11175000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10777000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7830000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8773000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8614000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7190000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6502000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5466000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6323000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3453000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2180000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1153000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3707000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2645000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15727000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12709000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13113000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13024000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12938000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12463000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12285000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11813000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11808000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11329000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8239000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8323000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8303000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8240000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8352000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8316000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8780000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8131000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13819000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40078000</v>
+      </c>
+      <c r="E60" s="3">
         <v>38730000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39660000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36185000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38886000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41057000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44868000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39209000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38214000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38607000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37930000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34167000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32329000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31615000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33037000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28930000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27758000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26664000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>30340000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>144894000</v>
+      </c>
+      <c r="E61" s="3">
         <v>149700000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>123173000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>109790000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>106190000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>106561000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100712000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>101769000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>104598000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>105045000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>105873000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>106440000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>109174000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>112734000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>113642000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>115317000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>116390000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>112839000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>105433000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89106000</v>
+      </c>
+      <c r="E62" s="3">
         <v>84460000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84376000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84489000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84070000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>85229000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83312000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83585000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82349000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82835000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66316000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>68868000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>68225000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>67822000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>65777000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>81984000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82069000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82191000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84375000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>275506000</v>
+      </c>
+      <c r="E66" s="3">
         <v>274341000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>248639000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>231925000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>230562000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>234290000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>230332000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>225954000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>226526000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>228091000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>211684000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>211067000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>211279000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>213735000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>214047000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>227834000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>227789000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>223238000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>221656000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66310000</v>
+      </c>
+      <c r="E72" s="3">
         <v>63107000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60464000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58473000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56746000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54557000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53147000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50595000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47945000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46493000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43542000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44091000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41657000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39974000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35635000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19373000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18159000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16153000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15059000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73684000</v>
+      </c>
+      <c r="E76" s="3">
         <v>71232000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67842000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>65069000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62697000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60210000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61395000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58921000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56582000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55856000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53145000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54495000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52024000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50781000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43096000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26848000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25189000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23493000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22524000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5245000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4588000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4357000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4700000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4156000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5095000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5194000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3944000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5032000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1939000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4924000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4120000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18669000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3620000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4362000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3450000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4495000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4020000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4174000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4197000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4192000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4181000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4150000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4105000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4114000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4232000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4231000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4352000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4377000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4350000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4324000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4456000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4272000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4167000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4059000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3987000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10744000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9694000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9296000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8920000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14728000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8824000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8998000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10912000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8755000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7081000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8095000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9811000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9785000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6648000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8084000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7303000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8237000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1681000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5086000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4222000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4748000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2597000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="M96" s="3">
         <v>-2489000</v>
       </c>
       <c r="N96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="O96" s="3">
         <v>-2438000</v>
       </c>
       <c r="P96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="U96" s="3">
         <v>-2354000</v>
       </c>
       <c r="V96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11406000</v>
+      </c>
+      <c r="E100" s="3">
         <v>27956000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9062000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2563000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4665000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-203000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5410000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13315000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1070000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>789000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4407000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-289000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1086000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-417000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-379000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>341000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>847000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-207000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>47000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-56000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>456000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1491000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32915000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33764000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32867000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34692000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31543000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30447000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31610000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34775000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32894000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32071000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32128000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34281000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32607000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32203000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31772000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33955000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31717000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>30548000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29814000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32340000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13528000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14255000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13522000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14822000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12334000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11749000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12296000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15631000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13384000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12721000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12990000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15291000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13331000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13328000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13255000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15387000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20614000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12484000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12047000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14362000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19387000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19509000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19345000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19870000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19209000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18698000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19314000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19144000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19510000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19350000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19138000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18990000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19276000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18875000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18517000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18568000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11103000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18064000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17767000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17978000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,138 +1109,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-168000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>223000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>404000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1092000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>255000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1377000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2381000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>291000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1544000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-96000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4945000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>159000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>910000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>356000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2558000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>620000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>722000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3961000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4020000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4174000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4197000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4192000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4181000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4150000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4105000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4114000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4232000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4231000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4350000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4370000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4338000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4322000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4237000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8544000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12388000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8118000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3987000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24958000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25431000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25097000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27695000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24957000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23341000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25213000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30127000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25005000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25765000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24323000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31991000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24954000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25586000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24672000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30058000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25183000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22534000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23700000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24317000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7957000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8333000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7770000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6997000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6586000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7106000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6397000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4648000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7889000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6306000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7805000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2290000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7653000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6617000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7100000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3897000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6534000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8014000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6114000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8023000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,333 +1432,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1218000</v>
+      </c>
+      <c r="E20" s="3">
         <v>335000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>409000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>336000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>309000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>197000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>313000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>223000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>180000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>219000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>193000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>276000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>233000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>132000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>155000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>256000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>141000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>171000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>63000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13136000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12353000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11530000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11087000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11484000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10860000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8976000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10757000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12229000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6918000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12263000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11099000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11579000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8609000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10947000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12352000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10373000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12073000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E22" s="3">
         <v>844000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1101000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1080000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1044000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1116000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1034000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1159000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1146000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1215000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1210000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1199000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1211000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1222000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1201000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1219000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1164000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1218000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1132000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1137000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8374000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7824000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7078000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6253000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5851000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6187000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5676000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3712000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6923000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5310000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6788000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1367000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6675000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5527000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6054000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2934000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5511000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6967000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5182000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6949000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1820000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1875000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1535000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1347000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1348000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1389000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1586000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1236000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1628000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-698000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1613000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1281000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1388000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>912000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1775000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2489000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1629000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2349000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6554000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5949000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5378000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4718000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4504000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4839000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4287000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5217000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5337000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4074000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5160000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2065000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5062000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4246000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4666000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2022000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3736000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4478000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3553000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4600000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6407000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5800000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5245000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4588000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4357000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4700000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4156000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5095000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5194000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3944000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5032000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1939000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4924000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4120000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4545000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1908000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3620000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4362000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3450000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4495000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,17 +2074,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2032,11 +2092,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1218000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-335000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-409000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-336000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-309000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-197000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-313000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-223000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-180000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-219000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-193000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-276000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-233000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-155000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-256000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-141000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-171000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-63000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6407000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5800000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5245000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4588000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4357000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4156000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5095000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5194000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3944000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5032000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1939000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4924000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4120000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4545000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18669000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3620000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4362000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3450000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4495000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6407000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5800000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5245000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4588000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4357000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4156000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5095000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5194000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3944000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5032000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1939000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4924000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4120000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4545000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18669000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3620000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4362000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3450000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4495000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9936000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4657000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10205000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22171000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8983000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7882000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7047000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2594000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3020000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1949000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2322000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2745000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2538000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1750000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1923000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2079000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4487000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4583000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4307000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2880000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,463 +2779,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22896000</v>
+      </c>
+      <c r="E43" s="3">
         <v>22029000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23236000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24650000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23350000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23434000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24641000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26277000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25531000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25738000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25239000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25859000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24765000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23875000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22595000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23493000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21549000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19771000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16863000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17513000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2303000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1421000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1303000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1796000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1457000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1289000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1633000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1422000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1538000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1167000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1417000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1336000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1270000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1285000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1034000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1276000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1116000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1194000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1202000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5142000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7519000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4903000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5977000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4782000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4728000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7384000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7180000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4806000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4454000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4419000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4696000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4581000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4149000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5222000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3307000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3555000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3353000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4794000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4800000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40277000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35626000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39647000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54594000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38572000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37333000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40705000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37473000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34895000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33308000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33397000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34636000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33154000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30876000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31025000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29913000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30867000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28823000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27158000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26395000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E47" s="3">
         <v>760000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>749000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>793000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>725000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>760000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>834000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>860000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>912000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>897000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>925000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>917000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>976000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1070000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>994000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1039000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1054000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1075000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1080000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1110000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123725000</v>
+      </c>
+      <c r="E48" s="3">
         <v>122382000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117191000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117364000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>115862000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115185000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114649000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114609000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111067000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>110285000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>110954000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>89286000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87464000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87781000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87922000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88568000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86622000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86521000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>85213000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84751000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>177676000</v>
+      </c>
+      <c r="E49" s="3">
         <v>129951000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>132153000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130283000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130356000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130034000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>126224000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128946000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128267000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128439000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128480000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128519000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132937000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132916000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>132812000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>127836000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>127601000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>127674000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>124296000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>122775000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10502000</v>
+      </c>
+      <c r="E52" s="3">
         <v>60471000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55833000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13447000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11479000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9947000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12088000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9839000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9734000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10179000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10191000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11471000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11031000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10660000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11763000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9787000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8538000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8885000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8984000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9149000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>353457000</v>
+      </c>
+      <c r="E54" s="3">
         <v>349190000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>345573000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>316481000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>296994000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>293259000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>294500000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>291727000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>284875000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>283108000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>283947000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>264829000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>265562000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263303000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>264516000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>257143000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>254682000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252978000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>246731000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>244180000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20153000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17328000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17219000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20658000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17391000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19297000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17419000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21806000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19566000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17633000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18664000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22501000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19342000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18560000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17052000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21232000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18434000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17825000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14826000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13876000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7623000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7023000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8802000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5889000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5770000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6651000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11175000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10777000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7830000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8773000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8614000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7190000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6502000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5466000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6323000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3453000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2180000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1153000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3707000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2645000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13582000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15727000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12709000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13113000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13024000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12938000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12463000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12285000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11813000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11808000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11329000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8239000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8323000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8303000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8240000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8352000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8316000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8780000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8131000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13819000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41358000</v>
+      </c>
+      <c r="E60" s="3">
         <v>40078000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38730000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39660000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36185000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38886000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41057000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44868000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39209000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38607000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37930000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34167000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32329000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31615000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33037000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28930000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27758000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26664000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30340000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>143352000</v>
+      </c>
+      <c r="E61" s="3">
         <v>144894000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>149700000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>123173000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>109790000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>106190000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>106561000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100712000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>101769000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>104598000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>105045000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>105873000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>106440000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>109174000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>112734000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>113642000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>115317000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>116390000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>112839000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>105433000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90258000</v>
+      </c>
+      <c r="E62" s="3">
         <v>89106000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84460000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84376000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84489000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84070000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>85229000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83312000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83585000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82349000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82835000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66316000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>68868000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>68225000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>67822000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>65777000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>81984000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82069000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82191000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>84375000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>276413000</v>
+      </c>
+      <c r="E66" s="3">
         <v>275506000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>274341000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>248639000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>231925000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>230562000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>234290000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>230332000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>225954000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>226526000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>228091000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>211684000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>211067000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>211279000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>213735000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>214047000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>227834000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>227789000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>223238000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>221656000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>70062000</v>
+      </c>
+      <c r="E72" s="3">
         <v>66310000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63107000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60464000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58473000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>56746000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54557000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53147000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50595000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47945000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46493000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43542000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44091000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41657000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39974000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35635000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19373000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18159000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16153000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15059000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77044000</v>
+      </c>
+      <c r="E76" s="3">
         <v>73684000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71232000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67842000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>65069000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62697000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60210000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61395000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58921000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56582000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55856000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53145000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54495000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52024000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50781000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43096000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26848000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25189000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23493000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22524000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6407000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5800000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5245000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4588000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4357000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4156000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5095000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5194000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3944000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5032000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1939000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4924000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4120000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4545000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18669000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3620000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4362000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3450000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4495000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3961000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4020000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4174000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4197000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4192000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4181000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4150000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4105000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4114000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4232000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4231000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4352000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4377000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4350000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4324000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4456000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4272000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4167000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4059000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3987000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10724000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10744000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9694000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8920000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14728000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8824000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8998000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10912000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8755000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7081000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8095000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9811000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9785000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6648000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8084000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7303000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8237000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1681000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5086000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5145000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2617000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2599000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="N96" s="3">
         <v>-2489000</v>
       </c>
       <c r="O96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="P96" s="3">
         <v>-2438000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="V96" s="3">
         <v>-2354000</v>
       </c>
       <c r="W96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3081000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27956000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9062000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2563000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4665000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-203000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5026000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13315000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1070000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>789000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4407000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-289000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1086000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-417000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-379000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>341000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>847000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-207000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>47000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-56000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>456000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1491000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34067000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32915000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33764000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32867000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34692000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31543000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30447000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31610000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34775000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32894000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32071000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32128000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34281000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32607000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32203000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31772000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33955000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31717000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30548000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29814000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32340000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14996000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13528000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14255000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13522000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14822000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12334000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11749000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12296000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15631000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13384000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12721000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12990000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15291000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13331000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13328000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13255000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15387000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20614000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12484000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12047000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14362000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19071000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19387000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19509000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19345000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19870000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19209000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18698000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19314000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19144000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19510000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19350000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19138000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18990000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19276000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18875000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18517000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18568000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11103000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18064000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17767000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17978000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,144 +1128,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E14" s="3">
         <v>948000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-168000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>223000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>404000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1092000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>255000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1377000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2381000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>291000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1544000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-96000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4945000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>159000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>910000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>356000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2558000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>620000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>722000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4051000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3961000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4020000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4174000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4197000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4192000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4181000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4150000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4105000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4114000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4232000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4231000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4350000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4370000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4338000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4322000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4237000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8544000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12388000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8118000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3987000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27689000</v>
+      </c>
+      <c r="E17" s="3">
         <v>24958000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25431000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25097000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27695000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24957000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23341000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25213000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30127000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25005000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25765000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24323000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31991000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24954000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25586000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24672000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30058000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25183000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22534000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23700000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24317000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6378000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7957000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8333000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7770000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6997000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6586000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7106000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6397000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4648000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7889000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6306000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7805000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2290000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7653000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6617000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7100000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3897000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6534000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8014000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6114000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8023000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1218000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>335000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>409000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>336000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>309000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>197000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>313000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>223000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>180000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>219000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>193000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>276000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>233000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>132000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>155000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>256000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>141000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>171000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>63000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10934000</v>
+      </c>
+      <c r="E21" s="3">
         <v>13136000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12688000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12353000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11530000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11087000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11484000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10860000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8976000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10757000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12229000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6918000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12263000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11099000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11579000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8609000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10947000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12352000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10373000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12073000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E22" s="3">
         <v>801000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>844000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1101000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1080000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1044000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1116000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1034000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1159000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1146000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1215000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1210000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1199000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1211000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1222000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1201000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1219000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1164000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1218000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1132000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1137000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6144000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8374000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7824000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7078000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6253000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5851000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6187000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5676000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3712000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6923000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5310000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6788000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1367000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6675000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5527000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6054000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2934000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5511000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6967000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5182000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6949000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1407000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1820000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1875000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1535000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1347000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1348000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1389000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1586000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1236000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1628000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-698000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1613000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1281000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1388000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>912000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1775000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2489000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1629000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2349000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4737000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6554000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5949000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5378000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4718000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4504000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4839000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4287000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5217000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5337000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4074000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5160000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2065000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5062000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4246000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4666000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2022000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3736000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4478000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3553000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4600000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4613000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6407000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5800000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5245000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4588000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4357000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4700000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4156000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5095000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5194000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3944000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5032000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1939000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4924000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4120000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4545000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1908000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3620000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4362000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3450000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4495000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,17 +2137,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2095,11 +2155,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-505000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-335000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-409000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-336000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-309000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-197000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-313000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-223000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-180000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-219000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-193000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-276000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-233000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-132000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-155000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-256000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-141000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-171000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-63000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4613000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6407000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5800000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5245000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4588000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4357000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4700000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4156000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5095000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5194000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3944000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5032000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1939000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4924000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4120000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4545000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18669000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3620000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4362000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3450000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4495000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4613000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6407000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5800000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5245000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4588000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4357000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4700000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4156000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5095000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5194000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3944000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5032000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1939000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4924000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4120000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4545000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18669000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3620000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4362000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3450000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4495000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2921000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9936000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4657000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10205000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22171000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8983000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7882000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7047000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2594000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3020000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1949000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2322000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2745000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2538000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1750000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1923000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2079000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4487000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4583000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4307000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2880000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,484 +2871,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24585000</v>
+      </c>
+      <c r="E43" s="3">
         <v>22896000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22029000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23236000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24650000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23350000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23434000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24641000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26277000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25531000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25738000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25239000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25859000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24765000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23875000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22595000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23493000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21549000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19771000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>16863000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>17513000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2303000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1421000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1303000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1796000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1457000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1289000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1633000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1422000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1538000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1167000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1417000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1336000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1270000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1102000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1285000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1034000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1276000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1116000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1194000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1202000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6167000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5142000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7519000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4903000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5977000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4782000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4728000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7384000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7180000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4806000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4454000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4419000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4696000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4581000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4149000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5222000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3307000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3555000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3353000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4794000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4800000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36728000</v>
+      </c>
+      <c r="E46" s="3">
         <v>40277000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35626000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39647000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54594000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38572000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37333000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40705000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37473000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34895000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33308000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33397000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34636000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33154000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30876000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31025000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29913000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30867000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28823000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27158000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26395000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1277000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>760000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>749000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>793000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>725000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>760000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>834000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>860000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>912000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>897000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>925000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>917000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>976000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1070000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>994000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1039000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1054000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1075000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1080000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1110000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127579000</v>
+      </c>
+      <c r="E48" s="3">
         <v>123725000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>122382000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117191000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117364000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115862000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115185000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114649000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114609000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111067000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>110285000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>110954000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>89286000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87464000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87781000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87922000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>88568000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86622000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86521000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>85213000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84751000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>187899000</v>
+      </c>
+      <c r="E49" s="3">
         <v>177676000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129951000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>132153000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130283000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130356000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130034000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>126224000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128946000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128267000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128439000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128480000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128519000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132937000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>132916000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>132812000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>127836000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>127601000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>127674000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>124296000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>122775000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13134000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10502000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60471000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55833000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13447000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11479000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9947000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12088000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9839000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9734000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10179000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10191000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11471000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11031000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10660000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11763000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9787000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8538000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8885000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8984000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9149000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>366596000</v>
+      </c>
+      <c r="E54" s="3">
         <v>353457000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>349190000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>345573000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>316481000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>296994000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>293259000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>294500000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>291727000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>284875000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>283108000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>283947000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>264829000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>265562000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263303000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>264516000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>257143000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>254682000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252978000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>246731000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>244180000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24833000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20153000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17328000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17219000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20658000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17391000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19297000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17419000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21806000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19566000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17633000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18664000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22501000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19342000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18560000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17052000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21232000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18434000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17825000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14826000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13876000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7443000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7623000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7023000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8802000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5889000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5770000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6651000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11175000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10777000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7830000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8773000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8614000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7190000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6502000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5466000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6323000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3453000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2180000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1153000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3707000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2645000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14884000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13582000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15727000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12709000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13113000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13024000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12938000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12463000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12285000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11813000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11808000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11329000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8239000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8323000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8303000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8240000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8352000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8316000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8780000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8131000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13819000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47160000</v>
+      </c>
+      <c r="E60" s="3">
         <v>41358000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40078000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38730000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39660000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36185000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38886000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41057000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44868000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39209000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38214000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38607000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37930000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34167000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32329000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>31615000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33037000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28930000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27758000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26664000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30340000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>143425000</v>
+      </c>
+      <c r="E61" s="3">
         <v>143352000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>144894000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>149700000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>123173000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>109790000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>106190000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>106561000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100712000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>101769000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>104598000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>105045000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>105873000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>106440000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>109174000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>112734000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>113642000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>115317000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>116390000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>112839000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>105433000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>92811000</v>
+      </c>
+      <c r="E62" s="3">
         <v>90258000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89106000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84460000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84376000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84489000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84070000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>85229000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83312000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83585000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82349000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82835000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>66316000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>68868000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>68225000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>67822000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>65777000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>81984000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82069000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82191000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>84375000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284806000</v>
+      </c>
+      <c r="E66" s="3">
         <v>276413000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>275506000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>274341000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>248639000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>231925000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>230562000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>234290000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>230332000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>225954000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>226526000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>228091000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>211684000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>211067000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>211279000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>213735000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>214047000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>227834000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>227789000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>223238000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>221656000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>71993000</v>
+      </c>
+      <c r="E72" s="3">
         <v>70062000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>66310000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63107000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60464000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58473000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>56746000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54557000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53147000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50595000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47945000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46493000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43542000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44091000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41657000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39974000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35635000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19373000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18159000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16153000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15059000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81790000</v>
+      </c>
+      <c r="E76" s="3">
         <v>77044000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73684000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71232000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67842000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>65069000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62697000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>60210000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61395000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58921000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56582000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55856000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53145000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54495000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52024000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50781000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43096000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26848000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25189000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23493000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22524000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4613000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6407000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5800000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5245000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4588000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4357000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4700000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4156000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5095000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5194000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3944000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5032000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1939000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4924000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4120000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4545000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18669000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3620000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4362000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3450000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4495000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4051000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3961000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4020000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4174000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4197000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4192000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4181000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4150000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4105000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4114000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4232000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4231000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4352000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4377000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4350000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4324000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4456000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4272000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4167000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4059000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3987000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8377000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10724000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10744000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9694000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9296000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8920000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14728000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8824000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8998000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10912000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8755000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7081000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8095000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9811000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9785000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6648000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8084000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7303000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8237000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1681000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5086000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6425000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5145000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10135000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2648000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="O96" s="3">
         <v>-2489000</v>
       </c>
       <c r="P96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2438000</v>
       </c>
       <c r="R96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="W96" s="3">
         <v>-2354000</v>
       </c>
       <c r="X96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6517,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5192000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27956000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9062000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2563000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4665000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-203000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6950000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5026000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13315000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1070000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>789000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4407000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-289000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1086000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-417000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-379000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>341000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>847000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-207000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>47000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-56000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>456000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1491000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33554000</v>
+      </c>
+      <c r="E8" s="3">
         <v>34067000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32915000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33764000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32867000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34692000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31543000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30447000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31610000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34775000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32894000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32071000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32128000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34281000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32607000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32203000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31772000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33955000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31717000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30548000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29814000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32340000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14350000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14996000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13528000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14255000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13522000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14822000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12334000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11749000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12296000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15631000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13384000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12721000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12990000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15291000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13331000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13328000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13255000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15387000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>20614000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12484000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12047000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14362000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19204000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19071000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19387000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19509000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19345000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19870000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19209000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18698000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19314000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19144000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19510000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19350000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19138000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18990000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19276000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18875000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18517000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18568000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11103000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18064000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17767000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17978000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,150 +1147,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1230000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>948000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-168000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>223000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>404000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1092000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>255000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1377000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2381000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>291000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1544000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-96000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4945000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>159000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>910000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>356000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2558000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>620000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>722000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4236000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4051000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3961000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4020000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4174000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4197000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4192000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4181000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4150000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4105000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4114000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4232000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4231000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4350000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4370000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4338000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4322000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4237000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8544000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12388000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8118000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3987000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25758000</v>
+      </c>
+      <c r="E17" s="3">
         <v>27689000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24958000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25431000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25097000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27695000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24957000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23341000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25213000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30127000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25005000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25765000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24323000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31991000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24954000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25586000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24672000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>30058000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>25183000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22534000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23700000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24317000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7796000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6378000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7957000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8333000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7770000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6997000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6586000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7106000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6397000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4648000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7889000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6306000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7805000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2290000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7653000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6617000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7100000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3897000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6534000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8014000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6114000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8023000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-927000</v>
+      </c>
+      <c r="E20" s="3">
         <v>505000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1218000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>335000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>409000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>336000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>309000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>197000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>313000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>223000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>180000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>219000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>193000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>276000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>233000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>132000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>155000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>256000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>141000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>171000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>63000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11105000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10934000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13136000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12688000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12353000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11530000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11087000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11484000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10860000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8976000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12183000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10757000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12229000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6918000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12263000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11099000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11579000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8609000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10947000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12352000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10373000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12073000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E22" s="3">
         <v>739000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>801000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>844000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1101000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1080000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1044000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1116000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1034000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1159000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1146000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1215000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1210000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1199000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1211000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1222000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1201000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1219000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1164000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1218000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1132000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1137000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6083000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6144000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8374000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7824000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7078000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6253000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5851000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6187000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5676000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3712000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6923000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5310000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6788000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1367000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6675000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5527000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6054000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2934000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5511000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6967000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5182000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6949000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1407000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1820000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1875000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1535000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1347000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1348000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1389000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1586000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1236000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1628000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-698000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1613000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1281000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1388000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>912000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1775000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2489000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1629000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2349000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4711000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4737000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6554000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5949000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5378000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4718000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4504000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4839000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4287000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5217000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5337000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4074000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5160000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2065000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5062000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4246000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4666000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2022000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3736000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4478000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3553000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4600000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4613000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6407000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5800000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5245000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4588000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4357000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4700000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4156000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5095000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5194000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3944000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5032000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4924000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4120000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4545000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1908000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3620000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4362000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3450000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4495000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2140,17 +2200,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2158,11 +2218,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-505000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-335000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-409000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-336000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-309000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-197000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-313000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-223000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-180000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-219000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-193000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-233000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-132000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-155000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-256000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-141000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-171000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-63000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4613000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6407000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5800000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5245000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4588000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4357000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4700000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4156000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5095000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5194000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3944000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5032000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4924000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4120000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4545000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18669000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3620000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4362000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3450000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4495000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4613000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6407000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5800000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5245000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4588000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4357000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4700000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4156000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5095000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5194000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3944000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5032000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4924000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4120000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4545000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18669000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3620000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4362000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3450000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4495000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1661000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2921000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9936000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4657000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10205000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22171000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8983000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7882000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7047000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2594000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3020000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1949000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2322000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2538000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1750000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1923000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2079000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4487000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4583000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4307000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2880000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,505 +2963,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24335000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24585000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22896000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22029000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23236000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24650000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23350000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23434000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24641000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26277000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25531000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25738000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25239000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25859000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24765000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23875000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22595000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23493000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21549000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19771000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16863000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>17513000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3055000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2303000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1421000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1303000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1796000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1457000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1289000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1633000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1422000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1538000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1167000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1417000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1270000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1102000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1285000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1034000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1276000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1116000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1194000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1202000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5925000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6167000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5142000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7519000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4903000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5977000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4782000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4728000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7384000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7180000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4806000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4454000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4419000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4696000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4581000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4149000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5222000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3307000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3555000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3353000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4794000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4800000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35580000</v>
+      </c>
+      <c r="E46" s="3">
         <v>36728000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40277000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35626000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39647000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54594000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38572000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37333000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40705000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37473000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34895000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33308000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33397000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34636000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33154000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30876000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31025000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29913000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30867000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28823000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27158000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>26395000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1256000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1277000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>760000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>749000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>793000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>725000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>760000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>834000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>860000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>912000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>897000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>925000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>917000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>976000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1070000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>994000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1039000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1054000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1075000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1080000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1110000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127337000</v>
+      </c>
+      <c r="E48" s="3">
         <v>127579000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>123725000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>122382000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117191000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117364000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115862000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115185000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114649000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114609000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>111067000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>110285000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110954000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>89286000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87464000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87781000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>87922000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>88568000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86622000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86521000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>85213000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84751000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>188144000</v>
+      </c>
+      <c r="E49" s="3">
         <v>187899000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>177676000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129951000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>132153000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130283000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130356000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130034000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126224000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128946000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128267000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128439000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128480000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128519000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>132937000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>132916000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>132812000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>127836000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>127601000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>127674000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>124296000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>122775000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13392000</v>
+      </c>
+      <c r="E52" s="3">
         <v>13134000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10502000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>60471000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55833000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13447000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11479000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9947000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12088000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9839000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9734000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10179000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10191000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11471000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11031000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10660000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11763000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9787000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8538000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8885000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8984000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9149000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>365716000</v>
+      </c>
+      <c r="E54" s="3">
         <v>366596000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>353457000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>349190000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>345573000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>316481000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>296994000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>293259000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>294500000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>291727000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>284875000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>283108000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>283947000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>264829000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>265562000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>263303000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>264516000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>257143000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>254682000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>252978000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>246731000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>244180000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18169000</v>
+      </c>
+      <c r="E57" s="3">
         <v>24833000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20153000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17328000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17219000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20658000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17391000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19297000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17419000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21806000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19566000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17633000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18664000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22501000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19342000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18560000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17052000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21232000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18434000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17825000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14826000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13876000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13421000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7443000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7623000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7023000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8802000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5889000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5770000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6651000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11175000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10777000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7830000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8773000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8614000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7190000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6502000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5466000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6323000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3453000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2180000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1153000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3707000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2645000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14995000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14884000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13582000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15727000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12709000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13113000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13024000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12938000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12463000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12285000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11813000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11808000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11329000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8239000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8323000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8303000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8240000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8352000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8316000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8780000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8131000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13819000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46585000</v>
+      </c>
+      <c r="E60" s="3">
         <v>47160000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41358000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40078000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38730000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39660000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36185000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38886000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41057000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44868000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39209000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38214000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38607000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37930000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34167000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32329000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>31615000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33037000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28930000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27758000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26664000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30340000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>139961000</v>
+      </c>
+      <c r="E61" s="3">
         <v>143425000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>143352000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>144894000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>149700000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>123173000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>109790000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>106190000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>106561000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100712000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>101769000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>104598000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>105045000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>105873000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>106440000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>109174000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>112734000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>113642000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>115317000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>116390000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>112839000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>105433000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93995000</v>
+      </c>
+      <c r="E62" s="3">
         <v>92811000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90258000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89106000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84460000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84376000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84489000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>84070000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85229000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83312000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83585000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82349000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82835000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>66316000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>68868000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>68225000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>67822000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>65777000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>81984000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82069000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>82191000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84375000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>281954000</v>
+      </c>
+      <c r="E66" s="3">
         <v>284806000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>276413000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>275506000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>274341000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>248639000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>231925000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>230562000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>234290000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>230332000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>225954000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>226526000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>228091000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>211684000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>211067000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>211279000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>213735000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>214047000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>227834000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>227789000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>223238000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>221656000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>73891000</v>
+      </c>
+      <c r="E72" s="3">
         <v>71993000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>70062000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>66310000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60464000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>58473000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>56746000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54557000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53147000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50595000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47945000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46493000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43542000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44091000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41657000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39974000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35635000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19373000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18159000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16153000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15059000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83762000</v>
+      </c>
+      <c r="E76" s="3">
         <v>81790000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77044000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73684000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71232000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>67842000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>65069000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62697000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60210000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61395000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58921000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56582000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55856000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53145000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54495000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52024000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50781000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43096000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26848000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25189000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23493000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22524000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4613000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6407000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5800000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5245000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4588000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4357000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4700000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4156000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5095000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5194000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3944000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5032000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4924000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4120000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4545000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18669000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3620000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4362000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3450000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4495000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4236000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4051000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3961000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4020000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4174000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4197000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4192000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4181000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4150000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4105000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4114000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4232000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4231000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4352000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4377000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4350000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4324000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4456000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4272000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4167000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4059000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3987000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6821000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8377000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10724000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10744000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9694000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8920000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14728000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8824000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8998000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10912000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8755000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7081000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8095000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9811000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9785000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6648000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8084000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7303000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8237000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1681000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5086000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5821000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6425000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5145000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7995000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2654000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="P96" s="3">
         <v>-2489000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="R96" s="3">
         <v>-2438000</v>
       </c>
       <c r="S96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="X96" s="3">
         <v>-2354000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,79 +6762,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27956000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9062000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2563000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4665000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-203000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,75 +6910,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-929000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5026000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13315000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1070000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>789000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4407000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-289000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1086000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-417000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-379000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>341000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>847000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-207000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>47000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-56000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>456000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1491000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33789000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33554000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34067000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32915000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33764000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32867000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34692000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31543000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30447000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31610000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34775000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32894000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32071000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32128000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34281000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32607000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32203000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31772000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33955000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31717000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>30548000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>29814000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>32340000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14420000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14350000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14996000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13528000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14255000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13522000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14822000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12334000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11749000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12296000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15631000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13384000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12721000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12990000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15291000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13331000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13328000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13255000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15387000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>20614000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12484000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12047000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14362000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19369000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19204000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19071000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19387000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19509000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19345000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19870000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19209000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18698000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19314000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19144000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19510000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19350000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19138000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18990000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19276000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18875000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18517000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18568000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11103000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18064000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17767000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>17978000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,156 +1166,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>1230000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>948000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-168000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>223000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>404000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1092000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>255000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1377000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2381000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>291000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1544000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4945000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>159000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>910000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>356000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2558000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>620000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>722000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4321000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4236000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4051000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3961000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4020000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4174000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4197000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4192000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4181000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4150000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4105000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4114000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4232000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4231000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4350000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4370000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4338000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4322000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4237000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8544000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12388000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8118000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3987000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26237000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25758000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27689000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24958000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25431000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25097000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27695000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24957000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23341000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25213000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30127000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25005000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25765000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24323000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31991000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24954000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25586000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24672000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>30058000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>25183000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22534000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>23700000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24317000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7552000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7796000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6378000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7957000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8333000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7770000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6997000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6586000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7106000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6397000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4648000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7889000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6306000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7805000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2290000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7653000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6617000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7100000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3897000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6534000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8014000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6114000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8023000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,378 +1531,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-927000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>505000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1218000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>335000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>409000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>336000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>309000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>197000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>313000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>223000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>180000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>219000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>193000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>276000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>233000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>132000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>155000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>256000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>141000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>171000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>63000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11963000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11105000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10934000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13136000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12688000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12353000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11530000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11087000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11484000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10860000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8976000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10757000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12229000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6918000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12263000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11099000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11579000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8609000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10947000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12352000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10373000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12073000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E22" s="3">
         <v>786000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>739000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>801000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>844000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1101000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1080000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1044000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1116000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1034000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1159000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1146000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1215000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1210000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1199000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1211000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1222000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1201000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1219000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1164000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1218000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1132000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1137000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6857000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6083000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6144000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8374000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7824000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7078000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6253000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5851000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6187000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5676000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3712000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6923000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5310000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6788000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1367000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6675000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5527000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6054000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2934000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5511000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6967000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5182000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6949000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1372000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1407000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1820000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1875000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1535000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1347000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1348000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1389000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1586000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1236000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1628000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-698000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1613000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1281000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1388000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>912000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1775000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2489000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1629000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2349000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5315000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4711000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4737000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6554000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5949000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5378000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4718000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4504000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4839000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4287000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5217000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5337000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4074000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5160000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2065000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5062000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4246000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4666000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2022000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3736000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4478000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3553000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4600000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4580000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4613000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6407000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5800000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5245000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4588000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4357000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4700000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4156000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5095000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5194000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3944000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5032000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1939000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4924000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4120000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4545000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1908000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3620000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4362000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3450000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4495000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,17 +2263,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2221,11 +2281,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E32" s="3">
         <v>927000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-505000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-335000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-409000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-336000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-309000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-197000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-313000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-223000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-180000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-219000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-276000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-233000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-132000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-155000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-256000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-141000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-171000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-63000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4580000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4613000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6407000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5800000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5245000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4588000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4357000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4700000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4156000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5095000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5194000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3944000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5032000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1939000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4924000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4120000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4545000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18669000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3620000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4362000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3450000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4495000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4580000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4613000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6407000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5800000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5245000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4588000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4357000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4700000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4156000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5095000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5194000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3944000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5032000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1939000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4924000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4120000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4545000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18669000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3620000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4362000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3450000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4495000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1857000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1661000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2921000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9936000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4657000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10205000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22171000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8983000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7882000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7047000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2594000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3020000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1949000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2745000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2538000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1750000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1923000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2079000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4487000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4583000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4307000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2880000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,526 +3055,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24606000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24335000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24585000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22896000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22029000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23236000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24650000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23350000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23434000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24641000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26277000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25531000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25738000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25239000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25859000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24765000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23875000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22595000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23493000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21549000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19771000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>16863000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>17513000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3646000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3659000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3055000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2303000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1421000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1303000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1796000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1457000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1289000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1633000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1422000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1538000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1167000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1417000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1336000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1270000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1102000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1285000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1034000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1276000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1116000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1194000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1202000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7390000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5925000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6167000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5142000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7519000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4903000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5977000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4782000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4728000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7384000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7180000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4806000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4454000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4419000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4696000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4581000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4149000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5222000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3307000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3555000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3353000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4794000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4800000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37499000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35580000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36728000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40277000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35626000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39647000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54594000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38572000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37333000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40705000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37473000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34895000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33308000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33397000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34636000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33154000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30876000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31025000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29913000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30867000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28823000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27158000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>26395000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1263000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1256000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1277000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>760000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>749000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>793000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>725000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>760000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>834000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>860000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>912000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>897000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>925000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>917000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>976000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1070000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>994000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1039000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1054000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1075000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1080000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1110000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>128408000</v>
+      </c>
+      <c r="E48" s="3">
         <v>127337000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127579000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>123725000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>122382000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117191000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117364000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115862000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115185000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114649000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114609000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111067000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110285000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>110954000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>89286000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87464000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>87781000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87922000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>88568000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86622000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86521000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>85213000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>84751000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>188648000</v>
+      </c>
+      <c r="E49" s="3">
         <v>188144000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>187899000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>177676000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129951000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>132153000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130283000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130356000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130034000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>126224000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128946000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128267000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128439000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128480000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128519000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>132937000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>132916000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>132812000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>127836000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>127601000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>127674000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>124296000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>122775000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14296000</v>
+      </c>
+      <c r="E52" s="3">
         <v>13392000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13134000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10502000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>60471000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55833000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13447000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11479000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9947000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12088000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9839000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9734000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10179000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10191000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11471000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11031000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10660000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11763000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9787000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8538000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8885000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8984000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9149000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>370147000</v>
+      </c>
+      <c r="E54" s="3">
         <v>365716000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>366596000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>353457000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>349190000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>345573000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>316481000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>296994000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>293259000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>294500000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>291727000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>284875000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>283108000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>283947000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>264829000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>265562000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>263303000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>264516000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>257143000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>254682000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>252978000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>246731000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>244180000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20956000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18169000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24833000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20153000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17328000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17219000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20658000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17391000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19297000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17419000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21806000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19566000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17633000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18664000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22501000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19342000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18560000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17052000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21232000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18434000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>17825000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14826000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13876000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12873000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13421000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7443000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7623000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7023000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8802000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5889000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5770000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6651000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11175000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10777000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7830000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8773000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8614000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7190000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6502000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5466000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6323000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3453000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2180000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1153000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3707000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2645000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15395000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14995000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14884000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13582000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15727000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12709000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13113000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13024000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12938000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12463000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12285000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11813000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11808000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11329000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8239000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8323000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8303000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8240000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8352000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8316000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8780000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8131000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13819000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49224000</v>
+      </c>
+      <c r="E60" s="3">
         <v>46585000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47160000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41358000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40078000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38730000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39660000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36185000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38886000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41057000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44868000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39209000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38214000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38607000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>37930000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34167000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32329000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31615000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33037000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>28930000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27758000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26664000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>30340000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>136184000</v>
+      </c>
+      <c r="E61" s="3">
         <v>139961000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>143425000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>143352000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>144894000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>149700000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>123173000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>109790000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>106190000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>106561000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100712000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>101769000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>104598000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>105045000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>105873000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>106440000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>109174000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>112734000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>113642000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>115317000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>116390000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>112839000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>105433000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97382000</v>
+      </c>
+      <c r="E62" s="3">
         <v>93995000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>92811000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>90258000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89106000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84460000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84376000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>84489000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84070000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85229000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83312000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83585000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82349000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82835000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>66316000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>68868000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>68225000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>67822000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>65777000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>81984000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>82069000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>82191000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>84375000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284131000</v>
+      </c>
+      <c r="E66" s="3">
         <v>281954000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284806000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>276413000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>275506000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>274341000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>248639000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>231925000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>230562000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>234290000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>230332000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>225954000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>226526000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>228091000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>211684000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>211067000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>211279000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>213735000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>214047000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>227834000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>227789000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>223238000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>221656000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76401000</v>
+      </c>
+      <c r="E72" s="3">
         <v>73891000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>71993000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>70062000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>66310000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60464000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>58473000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56746000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54557000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53147000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50595000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47945000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46493000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43542000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44091000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41657000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39974000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35635000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19373000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18159000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16153000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15059000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86016000</v>
+      </c>
+      <c r="E76" s="3">
         <v>83762000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81790000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77044000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73684000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71232000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>67842000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>65069000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62697000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60210000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61395000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58921000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56582000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55856000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53145000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54495000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52024000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50781000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43096000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26848000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25189000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23493000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22524000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4580000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4613000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6407000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5800000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5245000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4588000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4357000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4700000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4156000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5095000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5194000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3944000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5032000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1939000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4924000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4120000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4545000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18669000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3620000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4362000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3450000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4495000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4321000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4236000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4051000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3961000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4020000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4174000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4197000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4192000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4181000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4150000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4105000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4114000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4232000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4231000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4352000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4377000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4350000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4324000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4456000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4272000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4167000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4059000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3987000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10844000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6821000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8377000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10724000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10744000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9694000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9296000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8920000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14728000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8824000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8998000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10912000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8755000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7081000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8095000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9811000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9785000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6648000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8084000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7303000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8237000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1681000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5086000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4670000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5821000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6425000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5145000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6661000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7995000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2724000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2654000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2489000</v>
       </c>
       <c r="R96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="S96" s="3">
         <v>-2438000</v>
       </c>
       <c r="T96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="Y96" s="3">
         <v>-2354000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,82 +7007,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4082000</v>
+      </c>
+      <c r="E100" s="3">
         <v>245000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27956000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9062000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2563000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4665000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-203000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6913,78 +7161,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-929000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5026000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13315000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1070000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>789000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4407000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-289000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1086000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-417000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-379000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>341000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>847000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-207000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>47000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-56000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>456000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1491000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34241000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33789000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33554000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34067000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32915000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33764000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32867000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34692000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31543000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30447000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31610000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34775000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32894000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32071000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32128000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34281000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32607000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32203000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31772000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33955000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31717000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>30548000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29814000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>32340000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14601000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14420000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14350000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14996000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13528000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14255000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13522000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14822000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12334000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11749000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12296000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15631000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13384000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12721000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12990000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15291000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13331000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13328000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13255000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15387000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>20614000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12484000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12047000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14362000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19640000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19369000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19204000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19071000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19387000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19509000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19345000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19870000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19209000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18698000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19314000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19144000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19510000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19350000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19138000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18990000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19276000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18875000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18517000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18568000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11103000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18064000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>17767000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>17978000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,151 +1199,157 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>1230000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>948000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-168000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>223000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>404000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1092000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>255000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1377000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2381000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>291000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1544000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-96000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4945000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>159000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>910000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>356000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2558000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>620000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>722000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4324000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4321000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4236000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4051000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3961000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4020000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4174000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4197000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4192000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4181000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4150000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4105000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4114000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4232000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4231000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4350000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4370000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4338000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4322000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4237000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8544000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>12388000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8118000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3987000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26347000</v>
+      </c>
+      <c r="E17" s="3">
         <v>26237000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25758000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27689000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24958000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25431000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25097000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27695000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24957000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23341000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25213000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30127000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25005000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25765000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24323000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>31991000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24954000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25586000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24672000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>30058000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>25183000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22534000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>23700000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>24317000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7894000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7552000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7796000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6378000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7957000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8333000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7770000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6997000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6586000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7106000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6397000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4648000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7889000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6306000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7805000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2290000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7653000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6617000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7100000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3897000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6534000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8014000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6114000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8023000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,393 +1564,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-437000</v>
+      </c>
+      <c r="E20" s="3">
         <v>90000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-927000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>505000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1218000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>335000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>409000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>336000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>309000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>197000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>313000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>223000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>180000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>219000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>193000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>276000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>233000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>132000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>155000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>256000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>141000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>171000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>63000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11781000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11963000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11105000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10934000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13136000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12688000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12353000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11530000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11087000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11484000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10860000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8976000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12183000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10757000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12229000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6918000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12263000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11099000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11579000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8609000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10947000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12352000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10373000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12073000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E22" s="3">
         <v>785000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>786000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>739000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>801000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>844000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1101000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1080000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1044000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1116000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1034000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1159000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1146000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1215000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1210000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1199000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1211000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1222000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1201000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1219000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1164000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1218000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1132000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1137000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6520000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6857000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6083000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6144000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8374000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7824000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7078000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6253000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5851000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6187000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5676000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3712000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6923000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5310000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6788000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1367000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6675000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5527000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6054000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2934000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5511000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6967000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5182000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6949000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1496000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1542000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1372000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1407000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1820000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1875000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1535000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1347000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1348000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1389000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1586000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1236000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1628000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-698000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1613000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1281000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1388000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>912000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1775000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2489000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1629000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2349000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5024000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5315000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4711000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4737000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6554000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5949000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5378000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4718000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4504000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4839000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4287000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5217000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5337000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4074000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5160000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2065000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5062000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4246000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4666000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2022000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3736000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4478000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3553000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4600000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5199000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4580000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4613000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6407000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5800000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5245000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4588000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4357000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4700000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4156000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5095000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5194000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3944000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5032000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1939000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4924000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4120000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4545000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1908000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3620000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4362000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3450000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4495000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,17 +2326,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2284,11 +2344,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-90000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>927000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-505000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-335000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-409000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-336000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-309000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-197000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-313000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-223000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-180000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-219000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-193000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-276000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-233000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-132000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-155000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-256000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-141000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-171000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-63000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5199000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4580000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4613000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6407000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5800000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5245000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4588000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4357000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4700000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4156000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5095000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5194000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3944000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5032000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1939000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4924000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4120000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4545000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18669000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3620000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4362000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3450000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4495000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5199000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4580000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4613000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6407000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5800000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5245000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4588000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4357000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4700000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4156000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5095000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5194000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3944000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5032000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1939000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4924000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4120000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4545000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18669000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3620000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4362000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3450000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4495000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2082000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1857000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1661000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2921000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9936000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4657000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10205000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22171000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8983000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7882000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7047000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2594000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3020000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1949000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2322000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2745000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2538000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1750000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1923000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2079000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4487000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4583000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4307000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2880000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,547 +3147,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24362000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24606000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24335000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24585000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22896000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22029000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23236000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24650000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23350000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23434000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24641000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26277000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25531000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25738000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25239000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25859000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24765000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23875000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22595000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23493000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21549000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19771000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>16863000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>17513000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3133000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3646000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3659000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3055000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2303000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1421000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1303000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1796000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1457000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1289000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1633000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1422000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1538000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1167000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1417000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1336000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1270000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1102000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1285000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1034000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1276000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1116000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1194000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1202000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10169000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7390000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5925000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6167000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5142000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7519000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4903000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5977000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4782000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4728000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7384000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7180000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4806000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4454000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4419000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4696000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4581000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4149000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5222000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3307000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3555000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3353000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4794000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4800000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39746000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37499000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35580000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36728000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40277000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35626000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39647000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>54594000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38572000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37333000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40705000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37473000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34895000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33308000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33397000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34636000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33154000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30876000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31025000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29913000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30867000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>28823000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27158000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>26395000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1296000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1263000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1256000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1277000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>760000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>749000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>793000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>725000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>760000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>834000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>860000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>912000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>897000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>925000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>917000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>976000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1070000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>994000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1039000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1054000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1075000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1080000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1110000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>129592000</v>
+      </c>
+      <c r="E48" s="3">
         <v>128408000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127337000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127579000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>123725000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>122382000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117191000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>117364000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115862000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115185000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114649000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114609000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111067000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>110285000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>110954000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>89286000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>87464000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87781000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87922000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>88568000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86622000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>86521000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>85213000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>84751000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>189036000</v>
+      </c>
+      <c r="E49" s="3">
         <v>188648000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>188144000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>187899000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>177676000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129951000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>132153000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130283000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130356000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130034000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>126224000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>128946000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128267000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128439000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128480000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128519000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>132937000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>132916000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>132812000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>127836000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>127601000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>127674000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>124296000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>122775000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15456000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14296000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13392000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13134000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10502000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>60471000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55833000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13447000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11479000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9947000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12088000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9839000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9734000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10179000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10191000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11471000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11031000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10660000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11763000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9787000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8538000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8885000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8984000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9149000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>375090000</v>
+      </c>
+      <c r="E54" s="3">
         <v>370147000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>365716000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>366596000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>353457000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>349190000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>345573000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>316481000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>296994000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>293259000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>294500000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>291727000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>284875000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>283108000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>283947000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>264829000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>265562000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>263303000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>264516000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>257143000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>254682000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>252978000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>246731000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>244180000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22235000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20956000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18169000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24833000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20153000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17328000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17219000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20658000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17391000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19297000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17419000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21806000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19566000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17633000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18664000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22501000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19342000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18560000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17052000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21232000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18434000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>17825000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14826000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13876000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14995000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12873000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13421000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7443000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7623000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7023000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8802000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5889000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5770000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6651000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11175000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10777000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7830000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8773000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8614000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7190000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6502000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5466000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6323000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3453000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2180000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1153000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3707000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2645000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15911000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15395000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14995000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14884000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13582000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15727000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12709000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13113000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13024000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12938000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12463000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12285000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11813000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11808000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11329000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8239000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8323000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8303000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8240000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8352000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8316000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8780000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8131000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13819000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53141000</v>
+      </c>
+      <c r="E60" s="3">
         <v>49224000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46585000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47160000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41358000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40078000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38730000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39660000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36185000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38886000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41057000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44868000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39209000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38214000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38607000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>37930000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34167000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32329000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>31615000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33037000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>28930000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>27758000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26664000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>30340000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>132912000</v>
+      </c>
+      <c r="E61" s="3">
         <v>136184000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>139961000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>143425000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>143352000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>144894000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>149700000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>123173000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>109790000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>106190000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>106561000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100712000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>101769000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>104598000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>105045000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>105873000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>106440000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>109174000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>112734000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>113642000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>115317000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>116390000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>112839000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>105433000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100254000</v>
+      </c>
+      <c r="E62" s="3">
         <v>97382000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>93995000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>92811000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>90258000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89106000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84460000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>84376000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84489000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84070000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85229000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83312000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83585000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82349000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82835000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>66316000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>68868000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>68225000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>67822000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>65777000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>81984000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>82069000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>82191000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>84375000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>287622000</v>
+      </c>
+      <c r="E66" s="3">
         <v>284131000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>281954000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>284806000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>276413000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>275506000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>274341000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>248639000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>231925000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>230562000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>234290000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>230332000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>225954000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>226526000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>228091000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>211684000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>211067000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>211279000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>213735000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>214047000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>227834000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>227789000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>223238000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>221656000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>78545000</v>
+      </c>
+      <c r="E72" s="3">
         <v>76401000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>73891000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71993000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>70062000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>66310000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60464000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58473000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56746000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54557000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53147000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50595000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47945000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46493000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43542000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44091000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41657000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>39974000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35635000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19373000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18159000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16153000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15059000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>87468000</v>
+      </c>
+      <c r="E76" s="3">
         <v>86016000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83762000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81790000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77044000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73684000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71232000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>67842000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>65069000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62697000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60210000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61395000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58921000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56582000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55856000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53145000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54495000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52024000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50781000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43096000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26848000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25189000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23493000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22524000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5199000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4580000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4613000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6407000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5800000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5245000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4588000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4357000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4700000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4156000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5095000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5194000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3944000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5032000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1939000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4924000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4120000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4545000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18669000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3620000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4362000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3450000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4495000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4324000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4321000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4236000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4051000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3961000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4020000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4174000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4197000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4192000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4181000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4150000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4105000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4114000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4232000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4231000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4352000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4377000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4350000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4324000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4456000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4272000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4167000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4059000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3987000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10534000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10844000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6821000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8377000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10724000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10744000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9694000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9296000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8920000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14728000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8824000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8998000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10912000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8755000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7081000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8095000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9811000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9785000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6648000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8084000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7303000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8237000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1681000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5086000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5320000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4670000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5821000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6425000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5145000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8664000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6661000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7995000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2688000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2724000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2654000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="R96" s="3">
         <v>-2489000</v>
       </c>
       <c r="S96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="T96" s="3">
         <v>-2438000</v>
       </c>
       <c r="U96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="Z96" s="3">
         <v>-2354000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,85 +7252,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1616000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4082000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>245000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27956000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9062000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2563000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4665000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-203000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7164,81 +7412,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E102" s="3">
         <v>101000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-929000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5026000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13315000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1070000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>789000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4407000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-289000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1086000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-417000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-379000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>341000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>847000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-207000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>47000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-56000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>456000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1491000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35251000</v>
+      </c>
+      <c r="E8" s="3">
         <v>34241000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33789000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33554000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34067000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32915000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33764000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32867000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34692000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31543000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30447000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31610000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34775000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32894000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32071000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32128000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34281000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32607000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32203000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31772000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33955000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31717000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>30548000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>29814000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>32340000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15762000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14601000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14420000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14350000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14996000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13528000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14255000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13522000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14822000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12334000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11749000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12296000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15631000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13384000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12721000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12990000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15291000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13331000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13328000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13255000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15387000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>20614000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12484000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12047000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14362000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19489000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19640000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19369000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19204000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19071000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19387000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19509000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19345000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19870000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19209000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18698000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19314000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19144000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19510000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19350000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19138000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18990000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19276000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18875000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18517000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18568000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11103000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18064000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>17767000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>17978000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,168 +1204,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-2214000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>645000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>198000</v>
       </c>
       <c r="G14" s="3">
+        <v>1241000</v>
+      </c>
+      <c r="H14" s="3">
         <v>1230000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>948000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-168000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>223000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>404000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1092000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>255000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1377000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2381000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>291000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1544000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-96000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4945000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>159000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>910000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>356000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2558000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>620000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>722000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4218000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4324000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4321000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4236000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4051000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3961000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4020000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4174000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4197000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4192000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4181000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4150000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4105000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4114000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4232000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4231000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4350000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4370000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4338000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4322000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4237000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8544000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>12388000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8118000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3987000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26347000</v>
+        <v>25508000</v>
       </c>
       <c r="E17" s="3">
-        <v>26237000</v>
+        <v>26992000</v>
       </c>
       <c r="F17" s="3">
-        <v>25758000</v>
+        <v>26435000</v>
       </c>
       <c r="G17" s="3">
+        <v>26999000</v>
+      </c>
+      <c r="H17" s="3">
         <v>27689000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24958000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25431000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25097000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27695000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24957000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23341000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25213000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30127000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25005000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25765000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24323000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31991000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24954000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>25586000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24672000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>30058000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>25183000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>22534000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23700000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>24317000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7894000</v>
+        <v>9743000</v>
       </c>
       <c r="E18" s="3">
-        <v>7552000</v>
+        <v>7249000</v>
       </c>
       <c r="F18" s="3">
-        <v>7796000</v>
+        <v>7354000</v>
       </c>
       <c r="G18" s="3">
+        <v>6555000</v>
+      </c>
+      <c r="H18" s="3">
         <v>6378000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7957000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8333000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7770000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6997000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6586000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7106000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6397000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4648000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7889000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6306000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7805000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2290000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7653000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6617000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7100000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3897000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6534000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8014000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6114000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8023000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,408 +1597,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-437000</v>
+        <v>173000</v>
       </c>
       <c r="E20" s="3">
-        <v>90000</v>
+        <v>208000</v>
       </c>
       <c r="F20" s="3">
-        <v>-927000</v>
+        <v>288000</v>
       </c>
       <c r="G20" s="3">
+        <v>314000</v>
+      </c>
+      <c r="H20" s="3">
         <v>505000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1218000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>335000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>409000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>336000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>309000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>197000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>313000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>223000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>180000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>219000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>193000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>276000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>233000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>132000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>155000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>256000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>141000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>171000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>63000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14134000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11781000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11963000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11105000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10934000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13136000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12688000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12353000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11530000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11087000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11484000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10860000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8976000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12183000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10757000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12229000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6918000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12263000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11099000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11579000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8609000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10947000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12352000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10373000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>12073000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E22" s="3">
         <v>937000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>785000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>786000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>739000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>801000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>844000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1101000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1080000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1044000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1116000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1034000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1159000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1146000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1215000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1210000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1199000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1211000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1222000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1201000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1219000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1164000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1218000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1132000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1137000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8811000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6520000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6857000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6083000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6144000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8374000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7824000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7078000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6253000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5851000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6187000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5676000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3712000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6923000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5310000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6788000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1367000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6675000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5527000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6054000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2934000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5511000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6967000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5182000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6949000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2113000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1496000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1542000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1372000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1407000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1820000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1875000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1535000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1347000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1348000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1389000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1586000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1236000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1628000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-698000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1613000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1281000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1388000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>912000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1775000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2489000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1629000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2349000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6698000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5024000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5315000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4711000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4737000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6554000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5949000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5378000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4718000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4504000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4839000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4287000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5217000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5337000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4074000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5160000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2065000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5062000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4246000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4666000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2022000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3736000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4478000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3553000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4600000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6577000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4900000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5199000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4580000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4613000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6407000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5800000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5245000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4588000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4357000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4700000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4156000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5095000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5194000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3944000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5032000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1939000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4924000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4120000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4545000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1908000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3620000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4362000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3450000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4495000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,17 +2389,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2347,11 +2407,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>437000</v>
+        <v>-173000</v>
       </c>
       <c r="E32" s="3">
-        <v>-90000</v>
+        <v>-208000</v>
       </c>
       <c r="F32" s="3">
-        <v>927000</v>
+        <v>-288000</v>
       </c>
       <c r="G32" s="3">
+        <v>-314000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-505000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-335000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-409000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-336000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-309000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-197000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-313000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-223000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-219000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-193000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-276000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-233000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-132000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-155000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-256000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-141000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-171000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-63000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6577000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4900000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5199000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4580000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4613000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6407000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5800000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5245000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4588000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4357000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4700000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4156000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5095000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5194000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3944000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5032000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1939000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4924000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4120000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4545000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18669000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3620000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4362000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3450000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4495000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6577000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4900000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5199000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4580000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4613000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6407000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5800000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5245000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4588000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4357000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4700000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4156000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5095000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5194000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3944000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5032000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1939000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4924000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4120000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4545000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18669000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3620000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4362000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3450000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4495000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2082000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1857000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1661000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2921000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9936000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4657000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10205000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22171000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8983000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7882000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7047000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2594000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3020000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1949000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2322000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2745000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2538000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1750000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1923000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2079000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4487000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4583000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4307000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2880000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,568 +3239,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24506000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24362000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24606000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24335000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24585000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22896000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22029000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23236000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24650000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23350000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23434000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24641000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26277000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25531000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25738000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25239000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25859000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24765000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23875000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22595000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23493000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21549000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19771000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>16863000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>17513000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2388000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3133000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3646000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3659000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3055000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2303000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1421000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1303000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1796000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1457000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1289000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1633000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1422000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1167000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1417000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1336000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1270000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1102000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1285000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1034000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1276000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1116000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1194000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1202000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8358000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10169000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7390000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5925000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6167000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5142000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7519000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4903000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5977000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4782000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4728000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7384000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7180000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4806000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4454000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4419000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4696000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4581000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4149000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5222000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3307000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3555000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3353000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4794000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4800000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37857000</v>
+      </c>
+      <c r="E46" s="3">
         <v>39746000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37499000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35580000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36728000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40277000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35626000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39647000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54594000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38572000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37333000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40705000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37473000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34895000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33308000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33397000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34636000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33154000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30876000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31025000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29913000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30867000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>28823000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27158000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26395000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1260000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1296000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1263000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1256000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1277000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>760000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>749000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>793000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>725000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>760000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>834000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>860000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>912000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>897000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>925000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>917000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>976000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1070000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>994000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1039000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1054000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1075000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1080000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1110000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>133564000</v>
+      </c>
+      <c r="E48" s="3">
         <v>129592000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128408000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127337000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>127579000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>123725000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>122382000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>117191000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117364000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115862000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115185000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114649000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114609000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111067000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>110285000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>110954000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>89286000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87464000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87781000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>87922000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>88568000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>86622000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>86521000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>85213000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>84751000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>189928000</v>
+      </c>
+      <c r="E49" s="3">
         <v>189036000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>188648000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>188144000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>187899000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>177676000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129951000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>132153000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130283000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130356000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130034000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126224000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>128946000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128267000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128439000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128480000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>128519000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>132937000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>132916000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>132812000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>127836000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>127601000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>127674000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>124296000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>122775000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17053000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15456000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14296000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13392000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13134000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10502000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60471000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55833000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13447000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11479000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9947000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12088000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9839000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9734000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10179000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10191000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11471000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11031000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10660000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11763000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9787000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8538000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8885000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8984000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9149000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>379680000</v>
+      </c>
+      <c r="E54" s="3">
         <v>375090000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>370147000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>365716000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>366596000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>353457000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>349190000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>345573000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>316481000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>296994000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>293259000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>294500000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>291727000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>284875000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>283108000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>283947000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>264829000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>265562000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>263303000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>264516000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>257143000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>254682000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>252978000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>246731000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>244180000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4299,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23977000</v>
+      </c>
+      <c r="E57" s="3">
         <v>22235000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20956000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18169000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24833000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20153000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17328000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17219000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20658000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17391000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19297000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17419000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21806000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19566000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17633000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18664000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>22501000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19342000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18560000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17052000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21232000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18434000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>17825000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14826000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13876000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9963000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14995000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12873000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13421000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7443000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7623000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7023000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8802000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5889000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5770000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6651000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11175000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10777000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7830000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8773000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8614000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7190000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6502000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5466000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6323000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3453000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2180000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1153000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3707000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2645000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16231000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15911000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15395000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14995000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14884000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13582000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15727000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12709000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13113000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13024000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12938000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12463000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12285000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11813000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11808000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11329000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8239000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8323000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8303000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8240000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8352000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8316000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8780000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8131000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13819000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50171000</v>
+      </c>
+      <c r="E60" s="3">
         <v>53141000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49224000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46585000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47160000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41358000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40078000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38730000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39660000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36185000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38886000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41057000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44868000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39209000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38214000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38607000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>37930000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34167000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32329000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>31615000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>33037000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>28930000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>27758000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26664000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>30340000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>140676000</v>
+      </c>
+      <c r="E61" s="3">
         <v>132912000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>136184000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>139961000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>143425000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>143352000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>144894000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>149700000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>123173000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>109790000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>106190000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>106561000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100712000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>101769000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>104598000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>105045000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105873000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>106440000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>109174000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>112734000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>113642000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>115317000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>116390000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>112839000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>105433000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96370000</v>
+      </c>
+      <c r="E62" s="3">
         <v>100254000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>97382000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>93995000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>92811000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>90258000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89106000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>84460000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84376000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84489000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84070000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>85229000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83312000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83585000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82349000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82835000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>66316000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>68868000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>68225000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>67822000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>65777000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>81984000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>82069000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>82191000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>84375000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288536000</v>
+      </c>
+      <c r="E66" s="3">
         <v>287622000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284131000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>281954000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>284806000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>276413000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>275506000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>274341000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>248639000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>231925000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>230562000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>234290000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>230332000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>225954000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>226526000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>228091000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>211684000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>211067000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>211279000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>213735000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>214047000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>227834000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>227789000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>223238000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>221656000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>82380000</v>
+      </c>
+      <c r="E72" s="3">
         <v>78545000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>76401000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>73891000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>71993000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70062000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>66310000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>60464000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58473000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56746000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54557000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53147000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50595000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47945000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46493000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43542000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44091000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41657000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39974000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35635000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19373000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18159000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16153000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15059000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91144000</v>
+      </c>
+      <c r="E76" s="3">
         <v>87468000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86016000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83762000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81790000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77044000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73684000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71232000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67842000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65069000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62697000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>60210000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61395000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>58921000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56582000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55856000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53145000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54495000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52024000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50781000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43096000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26848000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>25189000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23493000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22524000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6577000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4900000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5199000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4580000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4613000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6407000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5800000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5245000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4588000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4357000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4700000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4156000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5095000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5194000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3944000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5032000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1939000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4924000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4120000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4545000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18669000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3620000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4362000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3450000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4495000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4218000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4324000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4321000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4236000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4051000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3961000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4020000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4174000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4197000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4192000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4181000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4150000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4105000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4114000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4232000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4231000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4352000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4377000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4350000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4324000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4456000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4272000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4167000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4059000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3987000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8942000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10534000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10844000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6821000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8377000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10724000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10744000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9694000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9296000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8920000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14728000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8824000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8998000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10912000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8755000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7081000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8095000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9811000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9785000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6648000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8084000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7303000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8237000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1681000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5086000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7276000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5320000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4670000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5821000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6425000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5145000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5342000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8664000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6661000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7995000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2739000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2688000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2724000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2654000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="S96" s="3">
         <v>-2489000</v>
       </c>
       <c r="T96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="U96" s="3">
         <v>-2438000</v>
       </c>
       <c r="V96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="AA96" s="3">
         <v>-2354000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,88 +7497,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3076000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1616000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4082000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>245000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>27956000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9062000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2563000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4665000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-203000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,84 +7663,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E102" s="3">
         <v>254000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>101000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-929000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5026000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13315000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1070000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>789000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4407000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-289000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1086000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-417000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-379000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>341000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>847000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-207000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>47000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>456000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1491000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32912000</v>
+      </c>
+      <c r="E8" s="3">
         <v>35251000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34241000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33789000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33554000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34067000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32915000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33764000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32867000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34692000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31543000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30447000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31610000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34775000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32894000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32071000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32128000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34281000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32607000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32203000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31772000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33955000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31717000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>30548000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>29814000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>32340000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13504000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15762000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14601000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14420000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14350000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14996000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13528000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14255000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13522000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14822000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12334000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11749000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12296000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15631000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13384000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12721000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12990000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15291000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13331000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13328000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13255000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15387000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>20614000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12484000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12047000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>14362000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19408000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19489000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19640000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19369000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19204000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19071000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19387000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19509000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19345000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19870000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19209000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18698000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19314000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19144000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19510000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19350000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19138000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18990000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19276000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18875000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18517000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18568000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11103000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18064000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>17767000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>17978000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,174 +1223,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2214000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>645000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>198000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1241000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1230000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>948000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-168000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>223000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>404000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1092000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>255000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1377000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2381000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>291000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1544000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-96000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4945000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>159000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>910000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>356000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2558000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>620000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>722000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4318000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4218000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4324000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4321000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4236000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4051000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3961000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4020000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4174000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4197000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4192000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4181000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4150000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4105000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4114000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4232000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4231000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4350000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4370000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4338000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4322000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4237000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8544000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>12388000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8118000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3987000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25258000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25508000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26992000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26435000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26999000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27689000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24958000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25431000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25097000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27695000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24957000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23341000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25213000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30127000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25005000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25765000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24323000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31991000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24954000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>25586000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24672000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>30058000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>25183000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>22534000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>23700000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>24317000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7654000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9743000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7249000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7354000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6555000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6378000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7957000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8333000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7770000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6997000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6586000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7106000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6397000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4648000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7889000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6306000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7805000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2290000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7653000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6617000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7100000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3897000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6534000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8014000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6114000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8023000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,423 +1630,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E20" s="3">
         <v>173000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>208000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>288000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>314000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>505000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1218000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>335000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>409000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>336000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>309000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>197000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>313000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>223000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>180000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>219000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>193000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>276000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>233000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>132000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>155000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>256000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>141000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>171000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>63000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12025000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14134000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11781000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11963000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11105000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10934000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13136000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12688000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12353000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11530000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11087000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11484000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10860000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8976000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12183000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10757000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12229000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6918000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12263000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11099000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11579000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8609000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10947000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12352000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10373000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12073000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1207000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1105000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>937000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>785000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>786000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>739000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>801000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>844000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1101000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1080000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1044000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1116000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1034000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1146000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1215000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1210000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1199000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1211000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1222000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1201000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1219000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1164000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1218000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1132000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1137000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8811000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6520000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6857000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6083000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6144000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8374000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7824000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7078000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6253000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5851000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6187000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5676000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3712000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6923000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5310000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6788000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1367000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6675000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5527000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6054000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2934000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5511000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6967000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5182000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6949000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2113000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1496000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1542000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1372000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1407000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1820000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1875000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1535000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1347000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1348000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1389000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1586000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1236000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1628000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-698000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1613000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1281000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1388000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>912000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1775000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2489000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1629000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2349000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5018000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6698000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5024000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5315000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4711000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4737000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6554000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5949000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5378000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4718000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4504000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4839000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4287000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5217000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5337000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4074000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5160000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2065000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5062000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4246000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4666000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2022000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3736000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4478000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3553000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4600000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6577000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4900000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5199000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4580000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4613000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6407000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5800000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5245000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4588000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4357000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4700000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4156000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5095000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5194000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3944000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5032000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1939000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4924000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4120000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4545000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1908000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3620000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4362000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3450000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4495000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2402,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,17 +2452,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2410,11 +2470,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2428,8 +2488,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-173000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-208000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-288000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-314000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-505000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-335000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-409000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-336000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-309000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-197000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-313000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-223000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-180000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-219000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-193000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-276000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-233000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-132000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-155000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-256000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-141000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-171000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-63000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6577000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4900000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5199000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4580000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4613000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6407000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5800000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5245000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4588000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4357000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4700000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4156000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5095000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5194000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3944000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5032000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1939000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4924000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4120000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4545000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18669000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3620000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4362000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3450000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4495000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6577000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4900000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5199000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4580000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4613000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6407000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5800000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5245000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4588000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4357000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4700000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4156000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5095000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5194000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3944000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5032000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1939000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4924000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4120000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4545000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18669000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3620000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4362000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3450000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4495000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3161,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2234000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2605000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2082000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1857000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1661000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2921000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9936000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4657000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10205000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22171000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8983000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7882000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7047000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2594000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3020000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1949000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2322000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2745000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2538000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1750000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1923000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2079000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4487000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4583000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4307000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2880000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,589 +3331,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23436000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24506000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24362000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24606000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24335000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24585000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22896000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22029000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23236000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24650000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23350000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23434000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24641000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26277000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25531000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25738000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25239000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25859000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24765000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23875000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22595000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>23493000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21549000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19771000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>16863000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>17513000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2388000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3133000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3646000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3659000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3055000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2303000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1421000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1303000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1796000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1457000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1289000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1633000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1422000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1538000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1167000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1417000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1336000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1270000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1102000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1285000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1276000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1116000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1194000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1202000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7671000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8358000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10169000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7390000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5925000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6167000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5142000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7519000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4903000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5977000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4782000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4728000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7384000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7180000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4806000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4454000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4419000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4696000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4581000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4149000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5222000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3307000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3555000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3353000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4794000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4800000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35722000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37857000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39746000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37499000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35580000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36728000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40277000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35626000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39647000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54594000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38572000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37333000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40705000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37473000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34895000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33308000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33397000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34636000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33154000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30876000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31025000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29913000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30867000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>28823000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27158000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26395000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1278000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1260000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1296000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1263000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1256000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1277000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>760000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>749000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>793000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>725000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>760000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>834000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>860000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>912000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>897000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>925000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>917000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>976000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1070000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>994000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1039000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1054000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1075000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1080000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1110000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132934000</v>
+      </c>
+      <c r="E48" s="3">
         <v>133564000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>129592000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>128408000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>127337000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127579000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>123725000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122382000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117191000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117364000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115862000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>115185000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114649000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114609000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111067000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>110285000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>110954000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>89286000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87464000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>87781000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>87922000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>88568000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>86622000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>86521000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>85213000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>84751000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>190405000</v>
+      </c>
+      <c r="E49" s="3">
         <v>189928000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>189036000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>188648000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>188144000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>187899000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>177676000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129951000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>132153000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130283000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130356000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130034000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>126224000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128946000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128267000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128439000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>128480000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128519000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>132937000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>132916000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>132812000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>127836000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>127601000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>127674000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>124296000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>122775000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17406000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17053000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15456000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14296000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13392000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13134000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10502000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>60471000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55833000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13447000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11479000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9947000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12088000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9839000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9734000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10179000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10191000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11471000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11031000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10660000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11763000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9787000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8538000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8885000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8984000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9149000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>377716000</v>
+      </c>
+      <c r="E54" s="3">
         <v>379680000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>375090000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>370147000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>365716000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>366596000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>353457000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>349190000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>345573000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>316481000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>296994000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>293259000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>294500000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>291727000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>284875000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>283108000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>283947000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>264829000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>265562000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>263303000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>264516000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>257143000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>254682000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>252978000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>246731000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>244180000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4429,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19273000</v>
+      </c>
+      <c r="E57" s="3">
         <v>23977000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22235000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20956000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18169000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24833000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20153000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17328000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17219000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20658000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17391000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19297000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17419000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21806000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19566000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17633000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18664000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22501000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19342000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18560000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>17052000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>21232000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>18434000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>17825000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14826000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13876000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12081000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9963000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14995000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12873000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13421000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7443000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7623000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7023000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8802000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5889000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5770000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6651000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11175000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10777000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7830000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8773000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8614000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7190000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6502000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5466000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6323000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3453000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2180000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1153000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3707000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2645000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16414000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16231000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15911000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15395000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14995000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14884000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13582000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15727000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12709000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13113000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13024000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12938000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12463000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12285000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11813000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11808000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11329000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8239000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8323000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8303000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8240000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8352000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8316000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8780000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8131000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13819000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47768000</v>
+      </c>
+      <c r="E60" s="3">
         <v>50171000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53141000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49224000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46585000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47160000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41358000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40078000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38730000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39660000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36185000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38886000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41057000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44868000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>39209000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38214000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38607000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>37930000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34167000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>32329000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>31615000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>33037000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>28930000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>27758000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26664000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>30340000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>140772000</v>
+      </c>
+      <c r="E61" s="3">
         <v>140676000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>132912000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>136184000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>139961000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>143425000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>143352000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>144894000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>149700000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>123173000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>109790000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>106190000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>106561000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100712000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>101769000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>104598000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105045000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>105873000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>106440000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>109174000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>112734000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>113642000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>115317000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>116390000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>112839000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>105433000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>94957000</v>
+      </c>
+      <c r="E62" s="3">
         <v>96370000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100254000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97382000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>93995000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>92811000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>90258000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>89106000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84460000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84376000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84489000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84070000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>85229000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83312000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83585000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82349000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82835000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>66316000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>68868000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>68225000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>67822000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>65777000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>81984000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>82069000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>82191000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>84375000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284833000</v>
+      </c>
+      <c r="E66" s="3">
         <v>288536000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>287622000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>284131000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>281954000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>284806000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>276413000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>275506000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>274341000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>248639000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>231925000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>230562000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>234290000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>230332000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>225954000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>226526000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>228091000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>211684000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>211067000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>211279000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>213735000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>214047000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>227834000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>227789000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>223238000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>221656000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84543000</v>
+      </c>
+      <c r="E72" s="3">
         <v>82380000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>78545000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76401000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>73891000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>71993000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>70062000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>66310000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>60464000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58473000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>56746000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54557000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53147000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50595000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47945000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46493000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43542000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44091000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41657000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39974000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35635000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19373000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18159000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16153000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15059000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92883000</v>
+      </c>
+      <c r="E76" s="3">
         <v>91144000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>87468000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86016000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83762000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>81790000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77044000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73684000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71232000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67842000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65069000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62697000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60210000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>61395000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>58921000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>56582000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>55856000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53145000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>54495000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>52024000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>50781000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43096000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26848000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>25189000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23493000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>22524000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6577000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4900000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5199000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4580000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4613000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6407000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5800000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5245000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4588000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4357000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4700000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4156000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5095000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5194000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3944000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5032000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1939000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4924000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4120000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4545000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18669000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3620000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4362000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3450000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4495000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4318000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4218000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4324000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4321000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4236000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4051000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3961000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4020000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4174000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4197000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4192000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4181000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4150000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4105000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4114000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4232000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4231000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4352000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4377000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4350000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4324000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4456000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4272000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4167000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4059000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3987000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8289000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8942000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10534000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10844000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6821000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8377000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10724000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10744000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9694000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9296000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8920000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14728000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8824000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8998000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10912000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8755000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7081000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8095000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9811000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9785000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6648000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8084000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7303000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8237000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1681000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5086000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7276000</v>
+        <v>-6556000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5320000</v>
+        <v>-8039000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4670000</v>
+        <v>-5935000</v>
       </c>
       <c r="G91" s="3">
-        <v>-5821000</v>
+        <v>-5107000</v>
       </c>
       <c r="H91" s="3">
-        <v>-6425000</v>
+        <v>-7659000</v>
       </c>
       <c r="I91" s="3">
-        <v>-5145000</v>
+        <v>-6994000</v>
       </c>
       <c r="J91" s="3">
+        <v>-6894000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6110000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5342000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8664000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6661000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7995000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7400,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2744000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2739000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2688000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2724000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2654000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="T96" s="3">
         <v>-2489000</v>
       </c>
       <c r="U96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="V96" s="3">
         <v>-2438000</v>
       </c>
       <c r="W96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="AB96" s="3">
         <v>-2354000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,91 +7742,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2383000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3076000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1616000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4082000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>245000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27956000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9062000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2563000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4665000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-203000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7666,87 +7914,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E102" s="3">
         <v>524000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>254000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>101000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-929000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5026000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13315000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1070000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>789000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4407000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-289000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1086000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-417000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-379000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>341000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>847000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-207000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>47000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>456000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1491000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32596000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32912000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35251000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34241000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33789000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33554000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34067000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32915000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33764000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32867000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34692000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31543000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30447000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31610000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34775000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32894000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32071000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32128000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34281000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32607000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32203000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31772000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>33955000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>31717000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>30548000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>29814000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>32340000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12764000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13504000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15762000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14601000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14420000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14350000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14996000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13528000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14255000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13522000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14822000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12334000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11749000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12296000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15631000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13384000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12721000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12990000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15291000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13331000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13328000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13255000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>15387000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>20614000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12484000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12047000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>14362000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19832000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19408000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19489000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19640000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19369000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19204000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19071000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19387000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19509000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19345000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19870000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19209000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18698000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19314000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19144000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19510000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19350000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19138000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18990000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19276000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18875000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18517000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18568000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>11103000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>18064000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>17767000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>17978000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,180 +1242,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-306000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-70000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2214000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>645000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>198000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1241000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1230000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>948000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-168000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>223000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>404000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1092000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>255000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1377000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2381000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>291000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1544000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-96000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4945000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>159000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>910000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>356000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2558000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>620000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>722000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4359000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4318000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4218000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4324000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4321000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4236000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4051000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3961000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4020000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4174000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4197000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4192000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4181000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4150000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4105000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4114000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4232000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4231000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4350000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4370000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4338000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4322000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4237000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8544000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>12388000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8118000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3987000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25307000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25258000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25508000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26992000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26435000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26999000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27689000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24958000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25431000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25097000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27695000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24957000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23341000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25213000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30127000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25005000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25765000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24323000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>31991000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24954000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>25586000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24672000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>30058000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>25183000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>22534000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>23700000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>24317000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7289000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7654000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9743000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7249000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7354000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6555000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6378000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7957000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8333000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7770000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6997000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6586000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7106000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6397000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4648000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7889000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6306000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7805000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2290000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7653000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6617000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7100000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3897000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6534000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8014000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6114000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>8023000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,438 +1663,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E20" s="3">
         <v>53000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>173000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>208000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>288000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>314000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>505000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1218000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>335000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>409000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>336000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>309000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>197000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>313000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>223000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>180000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>219000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>193000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>276000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>233000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>132000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>155000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>256000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>141000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>171000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>63000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11756000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12025000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14134000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11781000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11963000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11105000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10934000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13136000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12688000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12353000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11530000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11087000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11484000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10860000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8976000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12183000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10757000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12229000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6918000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12263000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11099000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11579000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8609000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10947000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>12352000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>10373000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>12073000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1207000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1105000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>937000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>785000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>786000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>739000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>801000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>844000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1101000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1080000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1044000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1116000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1159000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1146000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1215000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1210000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1199000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1211000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1222000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1201000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1219000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1164000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1218000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1132000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1137000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6112000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6500000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8811000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6520000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6857000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6083000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6144000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8374000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7824000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7078000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6253000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5851000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6187000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5676000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3712000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6923000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5310000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6788000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1367000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6675000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5527000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6054000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2934000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5511000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6967000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5182000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6949000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1482000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2113000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1496000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1542000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1372000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1407000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1820000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1875000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1535000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1347000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1348000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1389000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1586000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1236000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1628000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-698000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1613000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1281000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1388000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>912000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1775000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2489000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1629000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2349000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4766000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5018000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6698000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5024000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5315000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4711000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4737000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6554000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5949000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5378000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4718000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4504000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4839000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4287000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5217000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5337000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4074000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5160000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2065000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5062000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4246000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4666000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2022000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3736000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4478000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3553000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4600000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4909000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6577000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4900000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5199000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4580000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4613000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6407000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5800000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5245000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4588000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4357000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4700000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4156000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5095000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5194000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3944000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5032000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1939000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4924000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4120000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4545000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1908000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3620000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4362000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3450000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4495000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2455,17 +2515,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2473,11 +2533,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-53000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-173000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-208000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-288000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-314000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-505000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-335000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-409000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-336000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-309000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-197000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-223000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-180000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-219000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-193000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-276000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-233000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-132000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-155000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-256000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-141000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-171000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-63000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4909000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6577000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4900000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5199000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4580000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4613000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6407000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5800000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5245000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4588000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4357000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4700000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4156000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5095000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5194000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3944000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5032000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1939000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4924000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4120000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4545000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>18669000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3620000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4362000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3450000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4495000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4909000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6577000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4900000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5199000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4580000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4613000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6407000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5800000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5245000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4588000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4357000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4700000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4156000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5095000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5194000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3944000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5032000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1939000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4924000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4120000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4545000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>18669000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3620000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4362000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3450000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4495000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,94 +3247,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4803000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2234000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2605000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2082000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1857000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1661000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2921000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9936000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4657000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10205000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22171000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8983000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7882000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7047000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2594000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3020000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1949000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2322000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2745000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2538000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1750000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1923000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2079000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4487000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4583000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4307000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2880000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,610 +3423,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23728000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23436000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24506000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24362000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24606000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24335000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24585000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22896000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22029000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23236000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24650000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23350000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23434000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24641000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26277000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25531000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25738000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25239000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25859000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24765000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23875000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>22595000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>23493000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21549000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19771000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>16863000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>17513000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2381000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2388000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3133000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3646000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3659000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3055000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2303000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1421000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1303000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1796000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1457000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1289000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1633000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1422000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1538000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1167000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1417000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1336000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1270000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1102000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1285000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1276000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1116000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1194000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1202000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6961000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7671000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8358000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10169000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7390000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5925000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6167000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5142000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7519000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4903000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5977000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4782000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4728000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7384000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7180000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4806000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4454000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4419000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4696000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4581000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4149000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5222000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3307000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3555000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3353000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4794000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4800000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37388000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35722000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37857000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39746000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37499000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35580000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36728000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40277000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35626000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39647000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54594000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38572000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37333000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40705000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37473000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34895000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33308000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33397000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34636000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>33154000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30876000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31025000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>29913000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30867000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>28823000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>27158000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>26395000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1249000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1278000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1260000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1296000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1263000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1256000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1277000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>760000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>749000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>793000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>725000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>760000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>834000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>860000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>912000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>897000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>925000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>917000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>976000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1070000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>994000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1039000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1054000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1075000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1080000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1110000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132615000</v>
+      </c>
+      <c r="E48" s="3">
         <v>132934000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>133564000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>129592000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>128408000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127337000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127579000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>123725000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122382000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117191000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>117364000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>115862000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>115185000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114649000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114609000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111067000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>110285000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>110954000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>89286000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>87464000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>87781000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>87922000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>88568000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>86622000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>86521000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>85213000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>84751000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>191081000</v>
+      </c>
+      <c r="E49" s="3">
         <v>190405000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>189928000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>189036000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>188648000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>188144000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>187899000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>177676000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129951000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132153000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130283000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130356000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130034000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>126224000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128946000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128267000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>128439000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128480000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>128519000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>132937000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>132916000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>132812000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>127836000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>127601000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>127674000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>124296000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>122775000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17624000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17406000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17053000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15456000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14296000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13392000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13134000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10502000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60471000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55833000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13447000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11479000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9947000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12088000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9839000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9734000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10179000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10191000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11471000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11031000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10660000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11763000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9787000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8538000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8885000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8984000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9149000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>379955000</v>
+      </c>
+      <c r="E54" s="3">
         <v>377716000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>379680000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>375090000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>370147000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>365716000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>366596000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>353457000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>349190000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>345573000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316481000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>296994000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>293259000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>294500000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>291727000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>284875000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>283108000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>283947000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>264829000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>265562000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>263303000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>264516000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>257143000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>254682000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>252978000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>246731000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>244180000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,524 +4559,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20067000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19273000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23977000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22235000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20956000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18169000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24833000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20153000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17328000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17219000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20658000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17391000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19297000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17419000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21806000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19566000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17633000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18664000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22501000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19342000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18560000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>17052000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>21232000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>18434000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>17825000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14826000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>13876000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14827000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12081000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9963000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14995000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12873000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13421000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7443000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7623000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7023000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8802000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5889000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5770000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6651000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11175000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10777000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7830000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8773000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8614000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7190000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6502000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5466000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6323000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3453000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2180000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1153000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3707000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2645000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16510000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16414000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16231000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15911000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15395000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14995000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14884000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13582000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15727000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12709000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13113000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13024000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12938000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12463000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12285000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11813000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11808000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11329000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8239000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8323000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8303000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8240000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8352000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8316000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8780000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8131000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13819000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51404000</v>
+      </c>
+      <c r="E60" s="3">
         <v>47768000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50171000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53141000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49224000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46585000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47160000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41358000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40078000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38730000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39660000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36185000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38886000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41057000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44868000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>39209000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38214000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>38607000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>37930000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34167000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>32329000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>31615000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>33037000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>28930000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>27758000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>26664000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>30340000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>137871000</v>
+      </c>
+      <c r="E61" s="3">
         <v>140772000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>140676000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>132912000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>136184000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>139961000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>143425000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143352000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>144894000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>149700000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>123173000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>109790000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>106190000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>106561000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>100712000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>101769000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>104598000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>105045000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>105873000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>106440000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>109174000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>112734000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>113642000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>115317000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>116390000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>112839000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>105433000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>94178000</v>
+      </c>
+      <c r="E62" s="3">
         <v>94957000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96370000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100254000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97382000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>93995000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>92811000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>90258000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89106000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84460000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84376000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84489000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84070000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>85229000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83312000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83585000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82349000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82835000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>66316000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>68868000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>68225000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>67822000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>65777000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>81984000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>82069000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>82191000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>84375000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284762000</v>
+      </c>
+      <c r="E66" s="3">
         <v>284833000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288536000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>287622000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>284131000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>281954000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>284806000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>276413000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>275506000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>274341000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>248639000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>231925000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>230562000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>234290000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>230332000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>225954000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>226526000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>228091000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>211684000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>211067000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>211279000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>213735000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>214047000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>227834000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>227789000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>223238000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>221656000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>86448000</v>
+      </c>
+      <c r="E72" s="3">
         <v>84543000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>82380000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>78545000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>76401000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>73891000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>71993000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>70062000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>66310000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60464000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58473000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>56746000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54557000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53147000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50595000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47945000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46493000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43542000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44091000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41657000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>39974000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>35635000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19373000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18159000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16153000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>15059000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>95193000</v>
+      </c>
+      <c r="E76" s="3">
         <v>92883000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91144000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>87468000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86016000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83762000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81790000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77044000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73684000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71232000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67842000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>65069000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>62697000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60210000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>61395000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>58921000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>56582000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>55856000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53145000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>54495000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52024000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>50781000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43096000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>26848000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>25189000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>23493000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>22524000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4909000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6577000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4900000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5199000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4580000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4613000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6407000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5800000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5245000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4588000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4357000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4700000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4156000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5095000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5194000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3944000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5032000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1939000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4924000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4120000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4545000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>18669000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3620000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4362000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3450000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4495000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4359000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4318000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4218000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4324000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4321000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4236000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4051000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3961000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4020000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4174000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4197000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4192000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4181000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4150000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4105000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4114000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4232000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4231000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4352000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4377000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4350000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4324000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4456000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4272000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4167000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4059000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3987000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9731000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8289000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8942000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10534000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10844000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6821000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8377000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10724000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10744000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9694000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9296000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8920000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14728000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8824000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8998000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10912000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8755000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7081000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8095000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9811000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9785000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6648000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8084000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7303000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>8237000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1681000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5086000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4599000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6556000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8039000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5935000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5107000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7659000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6994000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6894000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4090000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6110000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5342000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8664000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6661000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7995000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2743000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2744000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2739000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2688000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2724000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2654000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="U96" s="3">
         <v>-2489000</v>
       </c>
       <c r="V96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="W96" s="3">
         <v>-2438000</v>
       </c>
       <c r="X96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="AC96" s="3">
         <v>-2354000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,94 +7987,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3203000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2383000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3076000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1616000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4082000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>245000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27956000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9062000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2563000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>4665000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-203000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7917,90 +8165,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2438000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-204000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>524000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>254000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>101000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-929000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5026000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13315000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1070000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>789000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4407000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-289000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1086000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-417000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-379000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>341000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>847000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-207000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>47000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>456000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1491000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>3584000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>VZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33336000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32596000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32912000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35251000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34241000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33789000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33554000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34067000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32915000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33764000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32867000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34692000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31543000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30447000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31610000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34775000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32894000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32071000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32128000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34281000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32607000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32203000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31772000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>33955000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>31717000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>30548000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>29814000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>32340000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>30937000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13437000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12764000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13504000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15762000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14601000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14420000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14350000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14996000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13528000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14255000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13522000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14822000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12334000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11749000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12296000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15631000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13384000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12721000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12990000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15291000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13331000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13328000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13255000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>15387000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>20614000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12484000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>12047000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>14362000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>12229000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19899000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19832000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19408000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19489000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19640000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19369000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19204000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19071000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19387000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19509000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19345000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19870000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19209000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18698000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19314000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19144000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19510000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19350000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19138000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18990000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>19276000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18875000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18517000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18568000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>11103000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>18064000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>17767000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>17978000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>18708000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,186 +1261,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-306000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-70000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2214000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>645000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>198000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1241000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1230000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>948000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-168000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>223000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>404000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1092000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>255000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1377000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2381000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>291000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1544000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-96000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4945000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>159000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>910000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>356000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2558000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>620000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-1015000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>722000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-1589000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4431000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4359000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4318000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4218000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4324000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4321000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4236000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4051000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3961000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4020000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4174000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4197000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4192000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4181000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4150000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4105000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4114000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4232000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4231000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4350000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4370000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4338000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4322000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4237000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8544000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>12388000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8118000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3987000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25778000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25307000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25258000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25508000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26992000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26435000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26999000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27689000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24958000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25431000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25097000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27695000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24957000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23341000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25213000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30127000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25005000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25765000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24323000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>31991000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24954000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>25586000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24672000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>30058000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>25183000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>22534000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>23700000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>24317000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>24397000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7558000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7289000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7654000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9743000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7249000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7354000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6555000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6378000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7957000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8333000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7770000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6997000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6586000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7106000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6397000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4648000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7889000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6306000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7805000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2290000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7653000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6617000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7100000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3897000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6534000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8014000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>6114000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>8023000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>6540000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,453 +1696,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E20" s="3">
         <v>108000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>53000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>173000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>208000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>288000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>314000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>505000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1218000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>335000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>409000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>336000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>309000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>197000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>313000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>223000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>180000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>219000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>193000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>276000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>233000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>132000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>155000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>256000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>141000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>171000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>63000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12056000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11756000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12025000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14134000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11781000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11963000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11105000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10934000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13136000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12688000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12353000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11530000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11087000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11484000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10860000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8976000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12183000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10757000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12229000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6918000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12263000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11099000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11579000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8609000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10947000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12352000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10373000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>12073000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>10556000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1285000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1207000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1105000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>937000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>785000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>786000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>739000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>801000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>844000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1101000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1080000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1044000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1034000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1159000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1146000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1215000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1210000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1199000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1211000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1222000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1201000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1219000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1164000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1218000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1132000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1137000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6192000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6112000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6500000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8811000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6520000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6857000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6083000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6144000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8374000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7824000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7078000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6253000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5851000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6187000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5676000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3712000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6923000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5310000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6788000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1367000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6675000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5527000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6054000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2934000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5511000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6967000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5182000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>6949000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>5576000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1346000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1482000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2113000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1496000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1542000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1372000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1407000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1820000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1875000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1535000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1347000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1389000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1505000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1586000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1236000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1628000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-698000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1613000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1281000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1388000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>912000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1775000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2489000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1629000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>2349000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1829000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4884000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4766000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5018000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6698000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5024000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5315000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4711000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4737000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6554000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5949000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5378000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4718000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4504000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4839000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4287000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5217000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5337000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4074000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5160000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2065000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5062000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4246000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4666000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2022000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3736000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4478000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3553000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>4600000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>3747000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4648000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4909000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6577000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4900000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5199000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4580000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4613000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6407000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5800000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5245000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4588000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4357000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4156000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5095000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5194000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3944000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5032000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1939000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4924000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4120000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4545000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1908000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3620000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4362000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3450000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4495000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2518,17 +2578,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2536,11 +2596,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>16761000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-108000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-53000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-173000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-208000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-288000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-314000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-505000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1218000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-335000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-409000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-336000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-309000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-197000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-313000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-223000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-180000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-219000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-193000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-276000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-233000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-155000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-256000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-141000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-171000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-63000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-74000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4648000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4909000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6577000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4900000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5199000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4580000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4613000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6407000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5800000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5245000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4588000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4357000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4156000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5095000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5194000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3944000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5032000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1939000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4924000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4120000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4545000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>18669000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3620000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4362000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3450000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4495000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4648000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4909000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6577000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4900000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5199000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4580000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4613000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6407000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5800000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5245000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4588000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4357000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4156000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5095000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5194000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3944000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5032000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1939000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4924000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4120000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4545000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>18669000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3620000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4362000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3450000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4495000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,97 +3333,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4210000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4803000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2234000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2605000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2082000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1857000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1661000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2921000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9936000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4657000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10205000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22171000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8983000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7882000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7047000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2594000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3020000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1949000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2322000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2745000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2538000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1750000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1923000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2079000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4487000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4583000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4307000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2880000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>6441000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3426,631 +3515,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23851000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23728000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23436000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24506000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24362000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24606000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24335000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24585000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22896000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22029000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23236000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24650000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23350000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23434000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24641000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26277000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25531000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25738000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25239000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25859000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>24765000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>23875000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>22595000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>23493000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21549000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19771000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>16863000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>17513000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>14832000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2240000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1896000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2381000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2388000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3133000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3646000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3659000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3055000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2303000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1421000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1303000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1796000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1457000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1289000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1633000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1422000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1538000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1167000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1417000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1336000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1270000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1102000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1285000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1034000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1276000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1116000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1194000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1202000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1318000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7818000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6961000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7671000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8358000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10169000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7390000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5925000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6167000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5142000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7519000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4903000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5977000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4782000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4728000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7384000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7180000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4806000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4454000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4419000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4696000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4581000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4149000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5222000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3307000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3555000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3353000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4794000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4800000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3030000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38119000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37388000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35722000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37857000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39746000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37499000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35580000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36728000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40277000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35626000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39647000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54594000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38572000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37333000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40705000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37473000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34895000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33308000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33397000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34636000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>33154000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30876000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31025000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>29913000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30867000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>28823000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>27158000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>26395000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>25621000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1178000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1247000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1249000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1278000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1260000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1296000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1263000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1256000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1277000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>760000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>749000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>793000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>725000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>760000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>834000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>860000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>912000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>897000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>925000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>917000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>976000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1070000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>994000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1039000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1054000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1075000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1080000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1110000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1119000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132576000</v>
+      </c>
+      <c r="E48" s="3">
         <v>132615000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132934000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>133564000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>129592000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>128408000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127337000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127579000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123725000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122382000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>117191000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>117364000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>115862000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>115185000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114649000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>114609000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111067000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>110285000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>110954000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>89286000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>87464000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>87781000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>87922000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>88568000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>86622000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>86521000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>85213000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>84751000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>83414000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>195059000</v>
+      </c>
+      <c r="E49" s="3">
         <v>191081000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>190405000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>189928000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>189036000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>188648000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>188144000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>187899000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>177676000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129951000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132153000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130283000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130356000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>130034000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>126224000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>128946000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>128267000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128439000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>128480000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>128519000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>132937000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>132916000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>132812000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>127836000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>127601000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>127674000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>124296000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>122775000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>121069000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17898000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17624000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17406000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17053000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15456000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14296000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13392000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13134000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10502000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60471000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55833000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13447000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11479000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9947000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12088000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9839000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9734000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10179000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10191000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11471000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11031000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10660000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11763000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9787000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8538000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8885000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8984000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>9149000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>8275000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>384830000</v>
+      </c>
+      <c r="E54" s="3">
         <v>379955000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>377716000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>379680000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>375090000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>370147000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>365716000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>366596000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>353457000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>349190000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>345573000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>316481000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>296994000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>293259000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>294500000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>291727000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>284875000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>283108000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>283947000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>264829000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>265562000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>263303000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>264516000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>257143000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>254682000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>252978000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>246731000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>244180000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>239498000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,542 +4689,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26140000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20067000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19273000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23977000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22235000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20956000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18169000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24833000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20153000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17328000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17219000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20658000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17391000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19297000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17419000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21806000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19566000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17633000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18664000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22501000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19342000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18560000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>17052000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>21232000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>18434000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>17825000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14826000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>13876000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>18002000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12950000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14827000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12081000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9963000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14995000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12873000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13421000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7443000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7623000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7023000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8802000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5889000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5770000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6651000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11175000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10777000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7830000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8773000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8614000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7190000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6502000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5466000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6323000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3453000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2180000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1153000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3707000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2645000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3852000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16587000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16510000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16414000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16231000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15911000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15395000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14995000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14884000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13582000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15727000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12709000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13113000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13024000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12938000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12463000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12285000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11813000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11808000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11329000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8239000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8323000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8303000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8240000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8352000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8316000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8780000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8131000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13819000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>8444000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55677000</v>
+      </c>
+      <c r="E60" s="3">
         <v>51404000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47768000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50171000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53141000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49224000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46585000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47160000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41358000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40078000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38730000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39660000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36185000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38886000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41057000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44868000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39209000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>38214000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>38607000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>37930000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34167000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>32329000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>31615000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>33037000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>28930000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>27758000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>26664000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>30340000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>30298000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>134441000</v>
+      </c>
+      <c r="E61" s="3">
         <v>137871000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>140772000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>140676000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>132912000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>136184000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>139961000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143425000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>143352000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>144894000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>149700000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>123173000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>109790000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>106190000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>106561000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>100712000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>101769000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>104598000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>105045000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>105873000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>106440000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>109174000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>112734000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>113642000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>115317000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>116390000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>112839000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>105433000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>102739000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95624000</v>
+      </c>
+      <c r="E62" s="3">
         <v>94178000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>94957000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96370000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100254000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97382000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>93995000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>92811000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>90258000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89106000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84460000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84376000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84489000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84070000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>85229000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83312000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83585000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82349000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82835000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>66316000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>68868000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>68225000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>67822000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>65777000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>81984000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>82069000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>82191000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>84375000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>84478000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>287089000</v>
+      </c>
+      <c r="E66" s="3">
         <v>284762000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284833000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288536000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>287622000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>284131000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>281954000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>284806000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>276413000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>275506000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>274341000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>248639000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>231925000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>230562000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>234290000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>230332000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>225954000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>226526000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>228091000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>211684000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>211067000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>211279000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>213735000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>214047000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>227834000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>227789000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>223238000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>221656000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>219038000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>88416000</v>
+      </c>
+      <c r="E72" s="3">
         <v>86448000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>84543000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>82380000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78545000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76401000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>73891000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>71993000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70062000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>66310000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>60464000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>58473000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>56746000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54557000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53147000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50595000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47945000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46493000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>43542000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44091000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41657000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>39974000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>35635000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19373000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>18159000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16153000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>15059000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>12918000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97741000</v>
+      </c>
+      <c r="E76" s="3">
         <v>95193000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>92883000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>91144000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>87468000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86016000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83762000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81790000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77044000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73684000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71232000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67842000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>65069000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>62697000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60210000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>61395000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>58921000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>56582000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>55856000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>53145000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>54495000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52024000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>50781000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43096000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>26848000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>25189000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>23493000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>22524000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>20460000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4648000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4909000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6577000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4900000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5199000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4580000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4613000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6407000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5800000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5245000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4588000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4357000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4156000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5095000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5194000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3944000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5032000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1939000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4924000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4120000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4545000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>18669000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3620000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4362000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3450000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4495000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,97 +6786,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4431000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4359000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4318000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4218000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4324000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4321000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4236000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4051000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3961000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4020000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4174000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4197000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4192000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4181000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4150000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4105000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4114000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4232000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4231000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4352000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4377000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4350000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4324000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4456000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4272000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4167000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4059000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3987000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>3942000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10778000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9731000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8289000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8942000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10534000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10844000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6821000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8377000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10724000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10744000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9694000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9296000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8920000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14728000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8824000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8998000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10912000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8755000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7081000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8095000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9811000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9785000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6648000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8084000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7303000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>8237000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1681000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5086000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>4816000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4868000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4599000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6556000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8039000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5935000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5107000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7659000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6994000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6894000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4222000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4494000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4024000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4318000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4576000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5274000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5607000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4365000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3699000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4268000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4632000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4188000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3286000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4552000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5965000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4271000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3944000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6526000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-11570000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-8506000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5408000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4090000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6110000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5342000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8664000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6661000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7995000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10135000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2617000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4748000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-49653000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5043000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6345000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5144000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6980000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5424000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3568000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3786000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4803000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4798000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4408000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3443000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5285000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5469000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3728000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4709000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4550000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-8444000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-5192000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,97 +7866,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2744000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2743000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2744000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2739000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2688000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2724000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2654000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2648000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2599000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2597000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2601000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2596000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2546000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2543000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2547000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2542000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2493000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2492000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-2489000</v>
       </c>
       <c r="V96" s="3">
         <v>-2489000</v>
       </c>
       <c r="W96" s="3">
-        <v>-2438000</v>
+        <v>-2489000</v>
       </c>
       <c r="X96" s="3">
         <v>-2438000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-2438000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-2407000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2405000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-2357000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-2356000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-2354000</v>
       </c>
       <c r="AD96" s="3">
         <v>-2354000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-2354000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-2303000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,97 +8232,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6055000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3203000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2383000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3076000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1616000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4082000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>245000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5192000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3081000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11406000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27956000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9062000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1505000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8795000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2563000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3863000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6258000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5386000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2657000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2956000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4556000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6549000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3497000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2765000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>4665000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-203000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>3977000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8168,93 +8416,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2438000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-204000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>524000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>254000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>101000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-929000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6950000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5026000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5410000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12003000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13315000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1070000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>789000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4407000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-289000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1086000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-417000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-379000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>341000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>847000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-207000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>47000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2180000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>456000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1491000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>3584000</v>
       </c>
     </row>
